--- a/Arquivo 1.xlsx
+++ b/Arquivo 1.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>960.23</v>
+        <v>739.9400000000001</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>777.53</v>
+        <v>599.4</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1114.8</v>
+        <v>858.84</v>
       </c>
     </row>
     <row r="5">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1824.93</v>
+        <v>1405.09</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>928.46</v>
+        <v>715.5</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2291.99</v>
+        <v>1764.37</v>
       </c>
     </row>
     <row r="8">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2555.11</v>
+        <v>1966.77</v>
       </c>
     </row>
     <row r="9">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>409.44</v>
+        <v>316.25</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2584.72</v>
+        <v>1989.55</v>
       </c>
     </row>
     <row r="11">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>985.22</v>
+        <v>759.16</v>
       </c>
     </row>
     <row r="12">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1461.3</v>
+        <v>1125.38</v>
       </c>
     </row>
     <row r="13">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1400.48</v>
+        <v>1078.59</v>
       </c>
     </row>
     <row r="14">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>632.5</v>
+        <v>487.84</v>
       </c>
     </row>
     <row r="15">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>392</v>
+        <v>302.84</v>
       </c>
     </row>
     <row r="16">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1480.36</v>
+        <v>1140.04</v>
       </c>
     </row>
     <row r="17">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>814.05</v>
+        <v>627.49</v>
       </c>
     </row>
     <row r="18">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>628.23</v>
+        <v>484.55</v>
       </c>
     </row>
     <row r="19">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>591.03</v>
+        <v>455.94</v>
       </c>
     </row>
     <row r="20">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>473.53</v>
+        <v>365.55</v>
       </c>
     </row>
     <row r="21">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>975</v>
+        <v>751.3</v>
       </c>
     </row>
     <row r="22">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1528.72</v>
+        <v>1177.24</v>
       </c>
     </row>
     <row r="23">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>857.53</v>
+        <v>660.9400000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>459.16</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="25">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2899.43</v>
+        <v>2231.63</v>
       </c>
     </row>
     <row r="26">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>322.99</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="27">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1513.76</v>
+        <v>1165.73</v>
       </c>
     </row>
     <row r="28">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>740.6799999999999</v>
+        <v>571.05</v>
       </c>
     </row>
     <row r="29">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>342.45</v>
+        <v>264.72</v>
       </c>
     </row>
     <row r="30">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1315.25</v>
+        <v>1013.03</v>
       </c>
     </row>
     <row r="31">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1333.53</v>
+        <v>1027.09</v>
       </c>
     </row>
     <row r="32">
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>335.86</v>
+        <v>259.65</v>
       </c>
     </row>
     <row r="33">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>163.27</v>
+        <v>126.89</v>
       </c>
     </row>
     <row r="34">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1538.37</v>
+        <v>1184.66</v>
       </c>
     </row>
     <row r="35">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1622.13</v>
+        <v>1249.09</v>
       </c>
     </row>
     <row r="36">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>853.27</v>
+        <v>657.66</v>
       </c>
     </row>
     <row r="37">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>612.3</v>
+        <v>472.3</v>
       </c>
     </row>
     <row r="38">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>568.9299999999999</v>
+        <v>438.94</v>
       </c>
     </row>
     <row r="39">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1991</v>
+        <v>1532.84</v>
       </c>
     </row>
     <row r="40">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2703.21</v>
+        <v>2080.69</v>
       </c>
     </row>
     <row r="41">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>341.06</v>
+        <v>263.65</v>
       </c>
     </row>
     <row r="42">
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1081.33</v>
+        <v>833.09</v>
       </c>
     </row>
     <row r="43">
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>858.83</v>
+        <v>661.9400000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>464.02</v>
+        <v>358.24</v>
       </c>
     </row>
     <row r="45">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>382.53</v>
+        <v>295.55</v>
       </c>
     </row>
     <row r="46">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1387.55</v>
+        <v>1068.65</v>
       </c>
     </row>
     <row r="47">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>561</v>
+        <v>432.84</v>
       </c>
     </row>
     <row r="48">
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>367.06</v>
+        <v>283.65</v>
       </c>
     </row>
     <row r="49">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>584.16</v>
+        <v>450.65</v>
       </c>
     </row>
     <row r="50">
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>830.1</v>
+        <v>639.84</v>
       </c>
     </row>
     <row r="51">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>686.4</v>
+        <v>529.3</v>
       </c>
     </row>
     <row r="52">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2095.7</v>
+        <v>1613.38</v>
       </c>
     </row>
     <row r="53">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>726.7</v>
+        <v>560.3</v>
       </c>
     </row>
     <row r="54">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1708.3</v>
+        <v>1315.38</v>
       </c>
     </row>
     <row r="55">
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1073.21</v>
+        <v>826.85</v>
       </c>
     </row>
     <row r="56">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1507.66</v>
+        <v>1161.04</v>
       </c>
     </row>
     <row r="57">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1620.75</v>
+        <v>1248.03</v>
       </c>
     </row>
     <row r="58">
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3489.5</v>
+        <v>2685.53</v>
       </c>
     </row>
     <row r="59">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>620.9299999999999</v>
+        <v>478.94</v>
       </c>
     </row>
     <row r="60">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>290.91</v>
+        <v>225.08</v>
       </c>
     </row>
     <row r="61">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1592.16</v>
+        <v>1226.04</v>
       </c>
     </row>
     <row r="62">
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1374.93</v>
+        <v>1058.94</v>
       </c>
     </row>
     <row r="63">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>290.91</v>
+        <v>225.08</v>
       </c>
     </row>
     <row r="64">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>628.84</v>
+        <v>485.02</v>
       </c>
     </row>
     <row r="65">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>966.73</v>
+        <v>744.9400000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1981.9</v>
+        <v>1525.84</v>
       </c>
     </row>
     <row r="67">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>306.08</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="68">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>440.83</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="69">
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>471.9</v>
+        <v>364.3</v>
       </c>
     </row>
     <row r="70">
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>539.73</v>
+        <v>416.48</v>
       </c>
     </row>
     <row r="71">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>484.9</v>
+        <v>374.3</v>
       </c>
     </row>
     <row r="72">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>760.63</v>
+        <v>586.4</v>
       </c>
     </row>
     <row r="73">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1628.05</v>
+        <v>1253.65</v>
       </c>
     </row>
     <row r="74">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1025.8</v>
+        <v>790.38</v>
       </c>
     </row>
     <row r="75">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1555.45</v>
+        <v>1197.8</v>
       </c>
     </row>
     <row r="76">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>911.62</v>
+        <v>702.55</v>
       </c>
     </row>
     <row r="77">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>306.33</v>
+        <v>236.94</v>
       </c>
     </row>
     <row r="78">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>228.47</v>
+        <v>177.05</v>
       </c>
     </row>
     <row r="79">
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>273.91</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>444.29</v>
+        <v>343.06</v>
       </c>
     </row>
     <row r="81">
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>966.73</v>
+        <v>744.9400000000001</v>
       </c>
     </row>
     <row r="82">
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>275</v>
+        <v>212.84</v>
       </c>
     </row>
     <row r="83">
@@ -4003,7 +4003,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>794.16</v>
+        <v>612.1900000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>377.95</v>
+        <v>292.03</v>
       </c>
     </row>
     <row r="85">
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1202.86</v>
+        <v>926.58</v>
       </c>
     </row>
     <row r="86">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1820.98</v>
+        <v>1402.05</v>
       </c>
     </row>
     <row r="87">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>516.1</v>
+        <v>398.3</v>
       </c>
     </row>
     <row r="88">
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>822.3</v>
+        <v>633.84</v>
       </c>
     </row>
     <row r="89">
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>443.88</v>
+        <v>342.75</v>
       </c>
     </row>
     <row r="90">
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1365.7</v>
+        <v>1051.84</v>
       </c>
     </row>
     <row r="91">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>668.39</v>
+        <v>515.45</v>
       </c>
     </row>
     <row r="92">
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>772.9</v>
+        <v>595.84</v>
       </c>
     </row>
     <row r="93">
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>467.29</v>
+        <v>360.75</v>
       </c>
     </row>
     <row r="94">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>450.5</v>
+        <v>347.84</v>
       </c>
     </row>
     <row r="95">
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1734.19</v>
+        <v>1335.29</v>
       </c>
     </row>
     <row r="96">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>856.84</v>
+        <v>660.41</v>
       </c>
     </row>
     <row r="97">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1359.79</v>
+        <v>1047.29</v>
       </c>
     </row>
     <row r="98">
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>536.3</v>
+        <v>413.84</v>
       </c>
     </row>
     <row r="99">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1278</v>
+        <v>984.38</v>
       </c>
     </row>
     <row r="100">
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>559.61</v>
+        <v>431.77</v>
       </c>
     </row>
     <row r="101">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>780.33</v>
+        <v>601.55</v>
       </c>
     </row>
     <row r="102">
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>822.04</v>
+        <v>633.64</v>
       </c>
     </row>
     <row r="103">
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1202.64</v>
+        <v>926.41</v>
       </c>
     </row>
     <row r="104">
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>921.1</v>
+        <v>709.84</v>
       </c>
     </row>
     <row r="105">
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1625.78</v>
+        <v>1251.9</v>
       </c>
     </row>
     <row r="106">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>732.78</v>
+        <v>564.98</v>
       </c>
     </row>
     <row r="107">
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>395.93</v>
+        <v>305.86</v>
       </c>
     </row>
     <row r="108">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>462.85</v>
+        <v>357.34</v>
       </c>
     </row>
     <row r="109">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>472.73</v>
+        <v>364.94</v>
       </c>
     </row>
     <row r="110">
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>472.73</v>
+        <v>364.94</v>
       </c>
     </row>
     <row r="111">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>773.0599999999999</v>
+        <v>595.96</v>
       </c>
     </row>
     <row r="112">
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>855.09</v>
+        <v>659.0599999999999</v>
       </c>
     </row>
     <row r="113">
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>251.6</v>
+        <v>194.84</v>
       </c>
     </row>
     <row r="114">
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>967.3</v>
+        <v>745.38</v>
       </c>
     </row>
     <row r="115">
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>390.58</v>
+        <v>301.75</v>
       </c>
     </row>
     <row r="116">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>967.3</v>
+        <v>745.38</v>
       </c>
     </row>
     <row r="117">
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1190.4</v>
+        <v>916.99</v>
       </c>
     </row>
     <row r="118">
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>749.39</v>
+        <v>577.75</v>
       </c>
     </row>
     <row r="119">
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>502.63</v>
+        <v>387.94</v>
       </c>
     </row>
     <row r="120">
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>308.69</v>
+        <v>238.75</v>
       </c>
     </row>
     <row r="121">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>912.9400000000001</v>
+        <v>703.5599999999999</v>
       </c>
     </row>
     <row r="122">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1452.7</v>
+        <v>1118.76</v>
       </c>
     </row>
     <row r="123">
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>447.66</v>
+        <v>345.65</v>
       </c>
     </row>
     <row r="124">
@@ -5766,7 +5766,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>819.66</v>
+        <v>631.8099999999999</v>
       </c>
     </row>
     <row r="125">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1262.53</v>
+        <v>972.48</v>
       </c>
     </row>
     <row r="126">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2464.85</v>
+        <v>1897.34</v>
       </c>
     </row>
     <row r="127">
@@ -5895,7 +5895,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>358.33</v>
+        <v>276.94</v>
       </c>
     </row>
     <row r="128">
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>558.65</v>
+        <v>431.03</v>
       </c>
     </row>
     <row r="129">
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1496.82</v>
+        <v>1152.7</v>
       </c>
     </row>
     <row r="130">
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2134.03</v>
+        <v>1642.86</v>
       </c>
     </row>
     <row r="131">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1509.42</v>
+        <v>1162.39</v>
       </c>
     </row>
     <row r="132">
@@ -6110,7 +6110,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1010.93</v>
+        <v>778.9400000000001</v>
       </c>
     </row>
     <row r="133">
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>797.58</v>
+        <v>614.8200000000001</v>
       </c>
     </row>
     <row r="134">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1010.93</v>
+        <v>778.9400000000001</v>
       </c>
     </row>
     <row r="135">
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>627.25</v>
+        <v>483.8</v>
       </c>
     </row>
     <row r="136">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>797.58</v>
+        <v>614.8200000000001</v>
       </c>
     </row>
     <row r="137">
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>853.5</v>
+        <v>657.84</v>
       </c>
     </row>
     <row r="138">
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>797.58</v>
+        <v>614.8200000000001</v>
       </c>
     </row>
     <row r="139">
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>502.24</v>
+        <v>387.64</v>
       </c>
     </row>
     <row r="140">
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1145.62</v>
+        <v>882.55</v>
       </c>
     </row>
     <row r="141">
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1025.39</v>
+        <v>790.0599999999999</v>
       </c>
     </row>
     <row r="142">
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1413.02</v>
+        <v>1088.24</v>
       </c>
     </row>
     <row r="143">
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>729.35</v>
+        <v>562.34</v>
       </c>
     </row>
     <row r="144">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1577.73</v>
+        <v>1214.94</v>
       </c>
     </row>
     <row r="145">
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1069.64</v>
+        <v>824.1</v>
       </c>
     </row>
     <row r="146">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1887.6</v>
+        <v>1453.3</v>
       </c>
     </row>
     <row r="147">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1771.19</v>
+        <v>1363.75</v>
       </c>
     </row>
     <row r="148">
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1396.42</v>
+        <v>1075.47</v>
       </c>
     </row>
     <row r="149">
@@ -6841,7 +6841,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>862.78</v>
+        <v>664.98</v>
       </c>
     </row>
     <row r="150">
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>761.5700000000001</v>
+        <v>587.12</v>
       </c>
     </row>
     <row r="151">
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>615.52</v>
+        <v>474.78</v>
       </c>
     </row>
     <row r="152">
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1649.49</v>
+        <v>1270.14</v>
       </c>
     </row>
     <row r="153">
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1199.28</v>
+        <v>923.8200000000001</v>
       </c>
     </row>
     <row r="154">
@@ -7056,7 +7056,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>906.9299999999999</v>
+        <v>698.9400000000001</v>
       </c>
     </row>
     <row r="155">
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>906.9299999999999</v>
+        <v>698.9400000000001</v>
       </c>
     </row>
     <row r="156">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>292.01</v>
+        <v>225.92</v>
       </c>
     </row>
     <row r="157">
@@ -7185,7 +7185,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>748.77</v>
+        <v>577.28</v>
       </c>
     </row>
     <row r="158">
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>322.99</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="159">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>662.14</v>
+        <v>510.64</v>
       </c>
     </row>
     <row r="160">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>443.62</v>
+        <v>342.55</v>
       </c>
     </row>
     <row r="161">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>251.73</v>
+        <v>194.94</v>
       </c>
     </row>
     <row r="162">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>577.54</v>
+        <v>445.56</v>
       </c>
     </row>
     <row r="163">
@@ -7443,7 +7443,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>383.31</v>
+        <v>296.15</v>
       </c>
     </row>
     <row r="164">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1180.8</v>
+        <v>909.61</v>
       </c>
     </row>
     <row r="165">
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>301.35</v>
+        <v>233.11</v>
       </c>
     </row>
     <row r="166">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>408.9</v>
+        <v>315.84</v>
       </c>
     </row>
     <row r="167">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>493.77</v>
+        <v>381.12</v>
       </c>
     </row>
     <row r="168">
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>660.35</v>
+        <v>509.26</v>
       </c>
     </row>
     <row r="169">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>628.73</v>
+        <v>484.94</v>
       </c>
     </row>
     <row r="170">
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>573.37</v>
+        <v>442.35</v>
       </c>
     </row>
     <row r="171">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>366.08</v>
+        <v>282.9</v>
       </c>
     </row>
     <row r="172">
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>369.3</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="173">
@@ -7873,7 +7873,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>732.73</v>
+        <v>564.9400000000001</v>
       </c>
     </row>
     <row r="174">
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>959.75</v>
+        <v>739.5700000000001</v>
       </c>
     </row>
     <row r="175">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>663.49</v>
+        <v>511.68</v>
       </c>
     </row>
     <row r="176">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>251.73</v>
+        <v>194.94</v>
       </c>
     </row>
     <row r="177">
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>3111</v>
+        <v>2394.38</v>
       </c>
     </row>
     <row r="178">
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>494.6</v>
+        <v>381.76</v>
       </c>
     </row>
     <row r="179">
@@ -8131,7 +8131,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>672.8099999999999</v>
+        <v>518.85</v>
       </c>
     </row>
     <row r="180">
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>983.55</v>
+        <v>757.88</v>
       </c>
     </row>
     <row r="181">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>436.08</v>
+        <v>336.75</v>
       </c>
     </row>
     <row r="182">
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>783.65</v>
+        <v>604.11</v>
       </c>
     </row>
     <row r="183">
@@ -8303,7 +8303,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>824.23</v>
+        <v>635.3200000000001</v>
       </c>
     </row>
     <row r="184">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>487.03</v>
+        <v>375.94</v>
       </c>
     </row>
     <row r="185">
@@ -8389,7 +8389,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1450.14</v>
+        <v>1116.79</v>
       </c>
     </row>
     <row r="186">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>394.23</v>
+        <v>304.55</v>
       </c>
     </row>
     <row r="187">
@@ -8475,7 +8475,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1819.27</v>
+        <v>1400.74</v>
       </c>
     </row>
     <row r="188">
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>911.59</v>
+        <v>702.52</v>
       </c>
     </row>
     <row r="189">
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>656.6</v>
+        <v>506.38</v>
       </c>
     </row>
     <row r="190">
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1667.38</v>
+        <v>1283.9</v>
       </c>
     </row>
     <row r="191">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>720.3</v>
+        <v>555.38</v>
       </c>
     </row>
     <row r="192">
@@ -8690,7 +8690,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>797.58</v>
+        <v>614.8200000000001</v>
       </c>
     </row>
     <row r="193">
@@ -8733,7 +8733,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>907.5599999999999</v>
+        <v>699.42</v>
       </c>
     </row>
     <row r="194">
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>907.5599999999999</v>
+        <v>699.42</v>
       </c>
     </row>
     <row r="195">
@@ -8819,7 +8819,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>762.15</v>
+        <v>587.5700000000001</v>
       </c>
     </row>
     <row r="196">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>762.15</v>
+        <v>587.5700000000001</v>
       </c>
     </row>
     <row r="197">
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>464.15</v>
+        <v>358.34</v>
       </c>
     </row>
     <row r="198">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>259.03</v>
+        <v>200.55</v>
       </c>
     </row>
     <row r="199">
@@ -8991,7 +8991,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>515.3200000000001</v>
+        <v>397.7</v>
       </c>
     </row>
     <row r="200">
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>522.35</v>
+        <v>403.11</v>
       </c>
     </row>
     <row r="201">
@@ -9077,7 +9077,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>522.35</v>
+        <v>403.11</v>
       </c>
     </row>
     <row r="202">
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>521.7</v>
+        <v>402.61</v>
       </c>
     </row>
     <row r="203">
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>290.98</v>
+        <v>225.13</v>
       </c>
     </row>
     <row r="204">
@@ -9206,7 +9206,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>129.95</v>
+        <v>101.26</v>
       </c>
     </row>
     <row r="205">
@@ -9249,7 +9249,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>331.95</v>
+        <v>256.65</v>
       </c>
     </row>
     <row r="206">
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>490.56</v>
+        <v>378.65</v>
       </c>
     </row>
     <row r="207">
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>205.21</v>
+        <v>159.15</v>
       </c>
     </row>
     <row r="208">
@@ -9378,7 +9378,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>584.02</v>
+        <v>450.55</v>
       </c>
     </row>
     <row r="209">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>474.81</v>
+        <v>366.54</v>
       </c>
     </row>
     <row r="210">
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>391.61</v>
+        <v>302.54</v>
       </c>
     </row>
     <row r="211">
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>243.82</v>
+        <v>188.85</v>
       </c>
     </row>
     <row r="212">
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>734.96</v>
+        <v>566.65</v>
       </c>
     </row>
     <row r="213">
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>204.05</v>
+        <v>158.26</v>
       </c>
     </row>
     <row r="214">
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1410.23</v>
+        <v>1086.09</v>
       </c>
     </row>
     <row r="215">
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>846.92</v>
+        <v>652.78</v>
       </c>
     </row>
     <row r="216">
@@ -9722,7 +9722,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>854.9299999999999</v>
+        <v>658.9400000000001</v>
       </c>
     </row>
     <row r="217">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>863.89</v>
+        <v>665.83</v>
       </c>
     </row>
     <row r="218">
@@ -9808,7 +9808,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>824.64</v>
+        <v>635.64</v>
       </c>
     </row>
     <row r="219">
@@ -9851,7 +9851,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>928.9299999999999</v>
+        <v>715.86</v>
       </c>
     </row>
     <row r="220">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>229.15</v>
+        <v>177.57</v>
       </c>
     </row>
     <row r="221">
@@ -9937,7 +9937,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>249</v>
+        <v>192.84</v>
       </c>
     </row>
     <row r="222">
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>354.3</v>
+        <v>273.84</v>
       </c>
     </row>
     <row r="223">
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>312.58</v>
+        <v>241.75</v>
       </c>
     </row>
     <row r="224">
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>737.2</v>
+        <v>568.38</v>
       </c>
     </row>
     <row r="225">
@@ -10109,7 +10109,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>360.8</v>
+        <v>278.84</v>
       </c>
     </row>
     <row r="226">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>2124.85</v>
+        <v>1635.8</v>
       </c>
     </row>
     <row r="227">
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>1628.12</v>
+        <v>1253.7</v>
       </c>
     </row>
     <row r="228">
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>632.48</v>
+        <v>487.82</v>
       </c>
     </row>
     <row r="229">
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>787.03</v>
+        <v>606.71</v>
       </c>
     </row>
     <row r="230">
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>727.5700000000001</v>
+        <v>560.97</v>
       </c>
     </row>
     <row r="231">
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>795.05</v>
+        <v>612.88</v>
       </c>
     </row>
     <row r="232">
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>1376.1</v>
+        <v>1059.84</v>
       </c>
     </row>
     <row r="233">
@@ -10453,7 +10453,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>473.79</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="234">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>505.1</v>
+        <v>389.84</v>
       </c>
     </row>
     <row r="235">
@@ -10539,7 +10539,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>713.78</v>
+        <v>550.36</v>
       </c>
     </row>
     <row r="236">
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>388.1</v>
+        <v>299.84</v>
       </c>
     </row>
     <row r="237">
@@ -10625,7 +10625,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>1422.9</v>
+        <v>1095.84</v>
       </c>
     </row>
     <row r="238">
@@ -10668,7 +10668,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>608.86</v>
+        <v>469.65</v>
       </c>
     </row>
     <row r="239">
@@ -10711,7 +10711,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>566.58</v>
+        <v>437.13</v>
       </c>
     </row>
     <row r="240">
@@ -10754,7 +10754,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>776.96</v>
+        <v>598.96</v>
       </c>
     </row>
     <row r="241">
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>275.68</v>
+        <v>213.36</v>
       </c>
     </row>
     <row r="242">
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>3012.2</v>
+        <v>2318.38</v>
       </c>
     </row>
     <row r="243">
@@ -10883,7 +10883,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>232.96</v>
+        <v>180.5</v>
       </c>
     </row>
     <row r="244">
@@ -10926,7 +10926,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>232.15</v>
+        <v>179.88</v>
       </c>
     </row>
     <row r="245">
@@ -10969,7 +10969,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>624.88</v>
+        <v>481.98</v>
       </c>
     </row>
     <row r="246">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>232.15</v>
+        <v>179.88</v>
       </c>
     </row>
     <row r="247">
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>296.3</v>
+        <v>229.22</v>
       </c>
     </row>
     <row r="248">
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>302.06</v>
+        <v>233.65</v>
       </c>
     </row>
     <row r="249">
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>370.06</v>
+        <v>285.96</v>
       </c>
     </row>
     <row r="250">
@@ -11184,7 +11184,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>368.65</v>
+        <v>284.88</v>
       </c>
     </row>
     <row r="251">
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>607.85</v>
+        <v>468.88</v>
       </c>
     </row>
     <row r="252">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>340.05</v>
+        <v>262.88</v>
       </c>
     </row>
     <row r="253">
@@ -11313,7 +11313,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>643.8</v>
+        <v>496.53</v>
       </c>
     </row>
     <row r="254">
@@ -11356,7 +11356,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>601.3</v>
+        <v>463.84</v>
       </c>
     </row>
     <row r="255">
@@ -11399,7 +11399,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>906.04</v>
+        <v>698.25</v>
       </c>
     </row>
     <row r="256">
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>257.45</v>
+        <v>199.34</v>
       </c>
     </row>
     <row r="257">
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>2061.57</v>
+        <v>1587.12</v>
       </c>
     </row>
     <row r="258">
@@ -11528,7 +11528,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>615.73</v>
+        <v>474.94</v>
       </c>
     </row>
     <row r="259">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>25034.13</v>
+        <v>19258.32</v>
       </c>
     </row>
     <row r="260">
@@ -11614,7 +11614,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>80.59999999999999</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="261">
@@ -11657,7 +11657,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>388.97</v>
+        <v>300.51</v>
       </c>
     </row>
     <row r="262">
@@ -11700,7 +11700,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>633.23</v>
+        <v>488.4</v>
       </c>
     </row>
     <row r="263">
@@ -11743,7 +11743,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>722.71</v>
+        <v>557.23</v>
       </c>
     </row>
     <row r="264">
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>245.1</v>
+        <v>189.84</v>
       </c>
     </row>
     <row r="265">
@@ -11829,7 +11829,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>238.35</v>
+        <v>184.65</v>
       </c>
     </row>
     <row r="266">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>1232.48</v>
+        <v>949.36</v>
       </c>
     </row>
     <row r="267">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>538.1900000000001</v>
+        <v>415.29</v>
       </c>
     </row>
     <row r="268">
@@ -11958,7 +11958,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>1232.48</v>
+        <v>949.36</v>
       </c>
     </row>
     <row r="269">
@@ -12001,7 +12001,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>388.97</v>
+        <v>300.51</v>
       </c>
     </row>
     <row r="270">
@@ -12044,7 +12044,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>316.16</v>
+        <v>244.5</v>
       </c>
     </row>
     <row r="271">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>566.14</v>
+        <v>436.79</v>
       </c>
     </row>
     <row r="272">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>361.07</v>
+        <v>279.05</v>
       </c>
     </row>
     <row r="273">
@@ -12173,7 +12173,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>316.16</v>
+        <v>244.5</v>
       </c>
     </row>
     <row r="274">
@@ -12216,7 +12216,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>685.9299999999999</v>
+        <v>528.9400000000001</v>
       </c>
     </row>
     <row r="275">
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1093.21</v>
+        <v>842.23</v>
       </c>
     </row>
     <row r="276">
@@ -12302,7 +12302,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>960.61</v>
+        <v>740.23</v>
       </c>
     </row>
     <row r="277">
@@ -12345,7 +12345,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1981.5</v>
+        <v>1525.53</v>
       </c>
     </row>
     <row r="278">
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>817.91</v>
+        <v>630.46</v>
       </c>
     </row>
     <row r="279">
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>439.39</v>
+        <v>339.29</v>
       </c>
     </row>
     <row r="280">
@@ -12474,7 +12474,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>505.96</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="281">
@@ -12517,7 +12517,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>571.48</v>
+        <v>440.9</v>
       </c>
     </row>
     <row r="282">
@@ -12560,7 +12560,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>1441.86</v>
+        <v>1110.42</v>
       </c>
     </row>
     <row r="283">
@@ -12603,7 +12603,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>953.6799999999999</v>
+        <v>734.9</v>
       </c>
     </row>
     <row r="284">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>150.36</v>
+        <v>116.96</v>
       </c>
     </row>
     <row r="285">
@@ -12689,7 +12689,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>1147.59</v>
+        <v>884.0599999999999</v>
       </c>
     </row>
     <row r="286">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>794.64</v>
+        <v>612.5599999999999</v>
       </c>
     </row>
     <row r="287">
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>367.98</v>
+        <v>284.36</v>
       </c>
     </row>
     <row r="288">
@@ -12818,7 +12818,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>355.43</v>
+        <v>274.71</v>
       </c>
     </row>
     <row r="289">
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>1107.54</v>
+        <v>853.25</v>
       </c>
     </row>
     <row r="290">
@@ -12904,7 +12904,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>801.89</v>
+        <v>618.14</v>
       </c>
     </row>
     <row r="291">
@@ -12947,7 +12947,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>1316.82</v>
+        <v>1014.24</v>
       </c>
     </row>
     <row r="292">
@@ -12990,7 +12990,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>495.91</v>
+        <v>382.77</v>
       </c>
     </row>
     <row r="293">
@@ -13033,7 +13033,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>902.17</v>
+        <v>695.28</v>
       </c>
     </row>
     <row r="294">
@@ -13076,7 +13076,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>1407.35</v>
+        <v>1083.88</v>
       </c>
     </row>
     <row r="295">
@@ -13119,7 +13119,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>2246.79</v>
+        <v>1729.6</v>
       </c>
     </row>
     <row r="296">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>507.62</v>
+        <v>391.78</v>
       </c>
     </row>
     <row r="297">
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>549.24</v>
+        <v>423.79</v>
       </c>
     </row>
     <row r="298">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>726</v>
+        <v>559.76</v>
       </c>
     </row>
     <row r="299">
@@ -13291,7 +13291,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>576.47</v>
+        <v>444.74</v>
       </c>
     </row>
     <row r="300">
@@ -13334,7 +13334,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>1118.57</v>
+        <v>861.74</v>
       </c>
     </row>
     <row r="301">
@@ -13377,7 +13377,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>444.81</v>
+        <v>343.46</v>
       </c>
     </row>
     <row r="302">
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="I302" t="n">
-        <v>302.98</v>
+        <v>234.36</v>
       </c>
     </row>
     <row r="303">
@@ -13463,7 +13463,7 @@
         </is>
       </c>
       <c r="I303" t="n">
-        <v>252.54</v>
+        <v>195.56</v>
       </c>
     </row>
     <row r="304">
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="I304" t="n">
-        <v>975.05</v>
+        <v>751.34</v>
       </c>
     </row>
     <row r="305">
@@ -13549,7 +13549,7 @@
         </is>
       </c>
       <c r="I305" t="n">
-        <v>727.54</v>
+        <v>560.95</v>
       </c>
     </row>
     <row r="306">
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="I306" t="n">
-        <v>680.6799999999999</v>
+        <v>524.9</v>
       </c>
     </row>
     <row r="307">
@@ -13635,7 +13635,7 @@
         </is>
       </c>
       <c r="I307" t="n">
-        <v>1186.46</v>
+        <v>913.96</v>
       </c>
     </row>
     <row r="308">
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="I308" t="n">
-        <v>311.45</v>
+        <v>240.88</v>
       </c>
     </row>
     <row r="309">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="I309" t="n">
-        <v>667.6</v>
+        <v>514.84</v>
       </c>
     </row>
     <row r="310">
@@ -13764,7 +13764,7 @@
         </is>
       </c>
       <c r="I310" t="n">
-        <v>3164.12</v>
+        <v>2435.24</v>
       </c>
     </row>
     <row r="311">
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="I311" t="n">
-        <v>339.26</v>
+        <v>262.27</v>
       </c>
     </row>
     <row r="312">
@@ -13850,7 +13850,7 @@
         </is>
       </c>
       <c r="I312" t="n">
-        <v>628.0599999999999</v>
+        <v>484.42</v>
       </c>
     </row>
     <row r="313">
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>760.45</v>
+        <v>586.26</v>
       </c>
     </row>
     <row r="314">
@@ -13936,7 +13936,7 @@
         </is>
       </c>
       <c r="I314" t="n">
-        <v>1673.26</v>
+        <v>1288.42</v>
       </c>
     </row>
     <row r="315">
@@ -13979,7 +13979,7 @@
         </is>
       </c>
       <c r="I315" t="n">
-        <v>456.64</v>
+        <v>352.56</v>
       </c>
     </row>
     <row r="316">
@@ -14022,7 +14022,7 @@
         </is>
       </c>
       <c r="I316" t="n">
-        <v>1763.06</v>
+        <v>1357.5</v>
       </c>
     </row>
     <row r="317">
@@ -14065,7 +14065,7 @@
         </is>
       </c>
       <c r="I317" t="n">
-        <v>2173.76</v>
+        <v>1673.42</v>
       </c>
     </row>
     <row r="318">
@@ -14108,7 +14108,7 @@
         </is>
       </c>
       <c r="I318" t="n">
-        <v>427.17</v>
+        <v>329.89</v>
       </c>
     </row>
     <row r="319">
@@ -14151,7 +14151,7 @@
         </is>
       </c>
       <c r="I319" t="n">
-        <v>800.02</v>
+        <v>616.7</v>
       </c>
     </row>
     <row r="320">
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="I320" t="n">
-        <v>1079.36</v>
+        <v>831.58</v>
       </c>
     </row>
     <row r="321">
@@ -14237,7 +14237,7 @@
         </is>
       </c>
       <c r="I321" t="n">
-        <v>353.16</v>
+        <v>272.96</v>
       </c>
     </row>
     <row r="322">
@@ -14280,7 +14280,7 @@
         </is>
       </c>
       <c r="I322" t="n">
-        <v>657.37</v>
+        <v>506.97</v>
       </c>
     </row>
     <row r="323">
@@ -14323,7 +14323,7 @@
         </is>
       </c>
       <c r="I323" t="n">
-        <v>678</v>
+        <v>522.84</v>
       </c>
     </row>
     <row r="324">
@@ -14366,7 +14366,7 @@
         </is>
       </c>
       <c r="I324" t="n">
-        <v>366.13</v>
+        <v>282.94</v>
       </c>
     </row>
     <row r="325">
@@ -14409,7 +14409,7 @@
         </is>
       </c>
       <c r="I325" t="n">
-        <v>389.4</v>
+        <v>300.84</v>
       </c>
     </row>
     <row r="326">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="I326" t="n">
-        <v>754.48</v>
+        <v>581.67</v>
       </c>
     </row>
     <row r="327">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="I327" t="n">
-        <v>229.63</v>
+        <v>177.94</v>
       </c>
     </row>
     <row r="328">
@@ -14538,7 +14538,7 @@
         </is>
       </c>
       <c r="I328" t="n">
-        <v>741.66</v>
+        <v>571.8099999999999</v>
       </c>
     </row>
     <row r="329">
@@ -14581,7 +14581,7 @@
         </is>
       </c>
       <c r="I329" t="n">
-        <v>400.54</v>
+        <v>309.41</v>
       </c>
     </row>
     <row r="330">
@@ -14624,7 +14624,7 @@
         </is>
       </c>
       <c r="I330" t="n">
-        <v>828.3099999999999</v>
+        <v>638.46</v>
       </c>
     </row>
     <row r="331">
@@ -14667,7 +14667,7 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>289.83</v>
+        <v>224.25</v>
       </c>
     </row>
     <row r="332">
@@ -14710,7 +14710,7 @@
         </is>
       </c>
       <c r="I332" t="n">
-        <v>730.87</v>
+        <v>563.51</v>
       </c>
     </row>
     <row r="333">
@@ -14753,7 +14753,7 @@
         </is>
       </c>
       <c r="I333" t="n">
-        <v>759.1900000000001</v>
+        <v>585.29</v>
       </c>
     </row>
     <row r="334">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="I334" t="n">
-        <v>485.25</v>
+        <v>374.57</v>
       </c>
     </row>
     <row r="335">
@@ -14839,7 +14839,7 @@
         </is>
       </c>
       <c r="I335" t="n">
-        <v>636.8099999999999</v>
+        <v>491.15</v>
       </c>
     </row>
     <row r="336">
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="I336" t="n">
-        <v>932.7</v>
+        <v>718.76</v>
       </c>
     </row>
     <row r="337">
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="I337" t="n">
-        <v>577.63</v>
+        <v>445.63</v>
       </c>
     </row>
     <row r="338">
@@ -14968,7 +14968,7 @@
         </is>
       </c>
       <c r="I338" t="n">
-        <v>400.54</v>
+        <v>309.41</v>
       </c>
     </row>
     <row r="339">
@@ -15011,7 +15011,7 @@
         </is>
       </c>
       <c r="I339" t="n">
-        <v>543.3</v>
+        <v>419.22</v>
       </c>
     </row>
     <row r="340">
@@ -15054,7 +15054,7 @@
         </is>
       </c>
       <c r="I340" t="n">
-        <v>1016.05</v>
+        <v>782.88</v>
       </c>
     </row>
     <row r="341">
@@ -15097,7 +15097,7 @@
         </is>
       </c>
       <c r="I341" t="n">
-        <v>565.28</v>
+        <v>436.13</v>
       </c>
     </row>
     <row r="342">
@@ -15140,7 +15140,7 @@
         </is>
       </c>
       <c r="I342" t="n">
-        <v>949.96</v>
+        <v>732.04</v>
       </c>
     </row>
     <row r="343">
@@ -15183,7 +15183,7 @@
         </is>
       </c>
       <c r="I343" t="n">
-        <v>549.59</v>
+        <v>424.06</v>
       </c>
     </row>
     <row r="344">
@@ -15226,7 +15226,7 @@
         </is>
       </c>
       <c r="I344" t="n">
-        <v>267.7</v>
+        <v>207.22</v>
       </c>
     </row>
     <row r="345">
@@ -15269,7 +15269,7 @@
         </is>
       </c>
       <c r="I345" t="n">
-        <v>402.4</v>
+        <v>310.84</v>
       </c>
     </row>
     <row r="346">
@@ -15312,7 +15312,7 @@
         </is>
       </c>
       <c r="I346" t="n">
-        <v>899.85</v>
+        <v>693.49</v>
       </c>
     </row>
     <row r="347">
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="I347" t="n">
-        <v>320.32</v>
+        <v>247.7</v>
       </c>
     </row>
     <row r="348">
@@ -15398,7 +15398,7 @@
         </is>
       </c>
       <c r="I348" t="n">
-        <v>1045.36</v>
+        <v>805.42</v>
       </c>
     </row>
     <row r="349">
@@ -15441,7 +15441,7 @@
         </is>
       </c>
       <c r="I349" t="n">
-        <v>899.85</v>
+        <v>693.49</v>
       </c>
     </row>
     <row r="350">
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="I350" t="n">
-        <v>1030.07</v>
+        <v>793.66</v>
       </c>
     </row>
     <row r="351">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="I351" t="n">
-        <v>662.4</v>
+        <v>510.84</v>
       </c>
     </row>
     <row r="352">
@@ -15570,7 +15570,7 @@
         </is>
       </c>
       <c r="I352" t="n">
-        <v>299.4</v>
+        <v>231.61</v>
       </c>
     </row>
     <row r="353">
@@ -15613,7 +15613,7 @@
         </is>
       </c>
       <c r="I353" t="n">
-        <v>299.4</v>
+        <v>231.61</v>
       </c>
     </row>
     <row r="354">
@@ -15656,7 +15656,7 @@
         </is>
       </c>
       <c r="I354" t="n">
-        <v>429.04</v>
+        <v>331.33</v>
       </c>
     </row>
     <row r="355">
@@ -15699,7 +15699,7 @@
         </is>
       </c>
       <c r="I355" t="n">
-        <v>371.64</v>
+        <v>287.18</v>
       </c>
     </row>
     <row r="356">
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="I356" t="n">
-        <v>1764.7</v>
+        <v>1358.76</v>
       </c>
     </row>
     <row r="357">
@@ -15785,7 +15785,7 @@
         </is>
       </c>
       <c r="I357" t="n">
-        <v>302.3</v>
+        <v>233.84</v>
       </c>
     </row>
     <row r="358">
@@ -15828,7 +15828,7 @@
         </is>
       </c>
       <c r="I358" t="n">
-        <v>267.02</v>
+        <v>206.7</v>
       </c>
     </row>
     <row r="359">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="I359" t="n">
-        <v>1270.7</v>
+        <v>978.76</v>
       </c>
     </row>
     <row r="360">
@@ -15914,7 +15914,7 @@
         </is>
       </c>
       <c r="I360" t="n">
-        <v>267.02</v>
+        <v>206.7</v>
       </c>
     </row>
     <row r="361">
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="I361" t="n">
-        <v>1216.36</v>
+        <v>936.96</v>
       </c>
     </row>
     <row r="362">
@@ -16000,7 +16000,7 @@
         </is>
       </c>
       <c r="I362" t="n">
-        <v>975.52</v>
+        <v>751.7</v>
       </c>
     </row>
     <row r="363">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="I363" t="n">
-        <v>1821.73</v>
+        <v>1402.63</v>
       </c>
     </row>
     <row r="364">
@@ -16086,7 +16086,7 @@
         </is>
       </c>
       <c r="I364" t="n">
-        <v>1159.42</v>
+        <v>893.16</v>
       </c>
     </row>
     <row r="365">
@@ -16129,7 +16129,7 @@
         </is>
       </c>
       <c r="I365" t="n">
-        <v>1066.16</v>
+        <v>821.42</v>
       </c>
     </row>
     <row r="366">
@@ -16172,7 +16172,7 @@
         </is>
       </c>
       <c r="I366" t="n">
-        <v>630.45</v>
+        <v>486.26</v>
       </c>
     </row>
     <row r="367">
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="I367" t="n">
-        <v>611.6</v>
+        <v>471.76</v>
       </c>
     </row>
     <row r="368">
@@ -16258,7 +16258,7 @@
         </is>
       </c>
       <c r="I368" t="n">
-        <v>904.11</v>
+        <v>696.77</v>
       </c>
     </row>
     <row r="369">
@@ -16301,7 +16301,7 @@
         </is>
       </c>
       <c r="I369" t="n">
-        <v>455.73</v>
+        <v>351.86</v>
       </c>
     </row>
     <row r="370">
@@ -16344,7 +16344,7 @@
         </is>
       </c>
       <c r="I370" t="n">
-        <v>752.75</v>
+        <v>580.34</v>
       </c>
     </row>
     <row r="371">
@@ -16387,7 +16387,7 @@
         </is>
       </c>
       <c r="I371" t="n">
-        <v>739.65</v>
+        <v>570.26</v>
       </c>
     </row>
     <row r="372">
@@ -16430,7 +16430,7 @@
         </is>
       </c>
       <c r="I372" t="n">
-        <v>592.75</v>
+        <v>457.26</v>
       </c>
     </row>
     <row r="373">
@@ -16473,7 +16473,7 @@
         </is>
       </c>
       <c r="I373" t="n">
-        <v>639.46</v>
+        <v>493.19</v>
       </c>
     </row>
     <row r="374">
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="I374" t="n">
-        <v>1100.31</v>
+        <v>847.6900000000001</v>
       </c>
     </row>
     <row r="375">
@@ -16559,7 +16559,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>1289.66</v>
+        <v>993.35</v>
       </c>
     </row>
     <row r="376">
@@ -16602,7 +16602,7 @@
         </is>
       </c>
       <c r="I376" t="n">
-        <v>342.37</v>
+        <v>264.66</v>
       </c>
     </row>
     <row r="377">
@@ -16645,7 +16645,7 @@
         </is>
       </c>
       <c r="I377" t="n">
-        <v>625.73</v>
+        <v>482.63</v>
       </c>
     </row>
     <row r="378">
@@ -16688,7 +16688,7 @@
         </is>
       </c>
       <c r="I378" t="n">
-        <v>669.59</v>
+        <v>516.37</v>
       </c>
     </row>
     <row r="379">
@@ -16731,7 +16731,7 @@
         </is>
       </c>
       <c r="I379" t="n">
-        <v>321.62</v>
+        <v>248.7</v>
       </c>
     </row>
     <row r="380">
@@ -16774,7 +16774,7 @@
         </is>
       </c>
       <c r="I380" t="n">
-        <v>543.47</v>
+        <v>419.35</v>
       </c>
     </row>
     <row r="381">
@@ -16817,7 +16817,7 @@
         </is>
       </c>
       <c r="I381" t="n">
-        <v>275.05</v>
+        <v>212.88</v>
       </c>
     </row>
     <row r="382">
@@ -16860,7 +16860,7 @@
         </is>
       </c>
       <c r="I382" t="n">
-        <v>1042.55</v>
+        <v>803.26</v>
       </c>
     </row>
     <row r="383">
@@ -16903,7 +16903,7 @@
         </is>
       </c>
       <c r="I383" t="n">
-        <v>562.98</v>
+        <v>434.36</v>
       </c>
     </row>
     <row r="384">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="I384" t="n">
-        <v>1016.65</v>
+        <v>783.34</v>
       </c>
     </row>
     <row r="385">
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="I385" t="n">
-        <v>720.2</v>
+        <v>555.3</v>
       </c>
     </row>
     <row r="386">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="I386" t="n">
-        <v>678.16</v>
+        <v>522.96</v>
       </c>
     </row>
     <row r="387">
@@ -17075,7 +17075,7 @@
         </is>
       </c>
       <c r="I387" t="n">
-        <v>429.03</v>
+        <v>331.32</v>
       </c>
     </row>
     <row r="388">
@@ -17118,7 +17118,7 @@
         </is>
       </c>
       <c r="I388" t="n">
-        <v>730.91</v>
+        <v>563.54</v>
       </c>
     </row>
     <row r="389">
@@ -17161,7 +17161,7 @@
         </is>
       </c>
       <c r="I389" t="n">
-        <v>909.04</v>
+        <v>700.5599999999999</v>
       </c>
     </row>
     <row r="390">
@@ -17204,7 +17204,7 @@
         </is>
       </c>
       <c r="I390" t="n">
-        <v>731.64</v>
+        <v>564.1</v>
       </c>
     </row>
     <row r="391">
@@ -17247,7 +17247,7 @@
         </is>
       </c>
       <c r="I391" t="n">
-        <v>491.97</v>
+        <v>379.74</v>
       </c>
     </row>
     <row r="392">
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="I392" t="n">
-        <v>755.03</v>
+        <v>582.09</v>
       </c>
     </row>
     <row r="393">
@@ -17333,7 +17333,7 @@
         </is>
       </c>
       <c r="I393" t="n">
-        <v>1112.02</v>
+        <v>856.7</v>
       </c>
     </row>
     <row r="394">
@@ -17376,7 +17376,7 @@
         </is>
       </c>
       <c r="I394" t="n">
-        <v>535.99</v>
+        <v>413.6</v>
       </c>
     </row>
     <row r="395">
@@ -17419,7 +17419,7 @@
         </is>
       </c>
       <c r="I395" t="n">
-        <v>1286.45</v>
+        <v>990.88</v>
       </c>
     </row>
     <row r="396">
@@ -17462,7 +17462,7 @@
         </is>
       </c>
       <c r="I396" t="n">
-        <v>557.01</v>
+        <v>429.77</v>
       </c>
     </row>
     <row r="397">
@@ -17505,7 +17505,7 @@
         </is>
       </c>
       <c r="I397" t="n">
-        <v>695.67</v>
+        <v>536.4299999999999</v>
       </c>
     </row>
     <row r="398">
@@ -17548,7 +17548,7 @@
         </is>
       </c>
       <c r="I398" t="n">
-        <v>907.36</v>
+        <v>699.27</v>
       </c>
     </row>
     <row r="399">
@@ -17591,7 +17591,7 @@
         </is>
       </c>
       <c r="I399" t="n">
-        <v>586.61</v>
+        <v>452.54</v>
       </c>
     </row>
     <row r="400">
@@ -17634,7 +17634,7 @@
         </is>
       </c>
       <c r="I400" t="n">
-        <v>816.26</v>
+        <v>629.1900000000001</v>
       </c>
     </row>
     <row r="401">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="I401" t="n">
-        <v>465.56</v>
+        <v>359.42</v>
       </c>
     </row>
     <row r="402">
@@ -17720,7 +17720,7 @@
         </is>
       </c>
       <c r="I402" t="n">
-        <v>829.73</v>
+        <v>639.55</v>
       </c>
     </row>
     <row r="403">
@@ -17763,7 +17763,7 @@
         </is>
       </c>
       <c r="I403" t="n">
-        <v>1243.06</v>
+        <v>957.5</v>
       </c>
     </row>
     <row r="404">
@@ -17806,7 +17806,7 @@
         </is>
       </c>
       <c r="I404" t="n">
-        <v>2093.61</v>
+        <v>1611.77</v>
       </c>
     </row>
     <row r="405">
@@ -17849,7 +17849,7 @@
         </is>
       </c>
       <c r="I405" t="n">
-        <v>347.59</v>
+        <v>268.68</v>
       </c>
     </row>
     <row r="406">
@@ -17892,7 +17892,7 @@
         </is>
       </c>
       <c r="I406" t="n">
-        <v>343.45</v>
+        <v>265.49</v>
       </c>
     </row>
     <row r="407">
@@ -17935,7 +17935,7 @@
         </is>
       </c>
       <c r="I407" t="n">
-        <v>204.75</v>
+        <v>158.8</v>
       </c>
     </row>
     <row r="408">
@@ -17978,7 +17978,7 @@
         </is>
       </c>
       <c r="I408" t="n">
-        <v>498.21</v>
+        <v>384.54</v>
       </c>
     </row>
     <row r="409">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="I409" t="n">
-        <v>758.78</v>
+        <v>584.98</v>
       </c>
     </row>
     <row r="410">
@@ -18064,7 +18064,7 @@
         </is>
       </c>
       <c r="I410" t="n">
-        <v>196.75</v>
+        <v>152.65</v>
       </c>
     </row>
     <row r="411">
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="I411" t="n">
-        <v>1733.86</v>
+        <v>1335.04</v>
       </c>
     </row>
     <row r="412">
@@ -18150,7 +18150,7 @@
         </is>
       </c>
       <c r="I412" t="n">
-        <v>445.78</v>
+        <v>344.21</v>
       </c>
     </row>
     <row r="413">
@@ -18193,7 +18193,7 @@
         </is>
       </c>
       <c r="I413" t="n">
-        <v>473.28</v>
+        <v>365.36</v>
       </c>
     </row>
     <row r="414">
@@ -18236,7 +18236,7 @@
         </is>
       </c>
       <c r="I414" t="n">
-        <v>1159.18</v>
+        <v>892.98</v>
       </c>
     </row>
     <row r="415">
@@ -18279,7 +18279,7 @@
         </is>
       </c>
       <c r="I415" t="n">
-        <v>1159.18</v>
+        <v>892.98</v>
       </c>
     </row>
     <row r="416">
@@ -18322,7 +18322,7 @@
         </is>
       </c>
       <c r="I416" t="n">
-        <v>703.83</v>
+        <v>542.71</v>
       </c>
     </row>
     <row r="417">
@@ -18365,7 +18365,7 @@
         </is>
       </c>
       <c r="I417" t="n">
-        <v>1103.74</v>
+        <v>850.33</v>
       </c>
     </row>
     <row r="418">
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="I418" t="n">
-        <v>761.7</v>
+        <v>587.22</v>
       </c>
     </row>
     <row r="419">
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="I419" t="n">
-        <v>2274.71</v>
+        <v>1751.08</v>
       </c>
     </row>
     <row r="420">
@@ -18494,7 +18494,7 @@
         </is>
       </c>
       <c r="I420" t="n">
-        <v>520.1</v>
+        <v>401.38</v>
       </c>
     </row>
     <row r="421">
@@ -18537,7 +18537,7 @@
         </is>
       </c>
       <c r="I421" t="n">
-        <v>797.21</v>
+        <v>614.54</v>
       </c>
     </row>
     <row r="422">
@@ -18580,7 +18580,7 @@
         </is>
       </c>
       <c r="I422" t="n">
-        <v>1044.21</v>
+        <v>804.54</v>
       </c>
     </row>
     <row r="423">
@@ -18623,7 +18623,7 @@
         </is>
       </c>
       <c r="I423" t="n">
-        <v>44.2</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="424">
@@ -18666,7 +18666,7 @@
         </is>
       </c>
       <c r="I424" t="n">
-        <v>330.13</v>
+        <v>255.25</v>
       </c>
     </row>
     <row r="425">
@@ -18709,7 +18709,7 @@
         </is>
       </c>
       <c r="I425" t="n">
-        <v>520.1</v>
+        <v>401.38</v>
       </c>
     </row>
     <row r="426">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="I426" t="n">
-        <v>476.14</v>
+        <v>367.56</v>
       </c>
     </row>
     <row r="427">
@@ -18795,7 +18795,7 @@
         </is>
       </c>
       <c r="I427" t="n">
-        <v>199.11</v>
+        <v>154.46</v>
       </c>
     </row>
     <row r="428">
@@ -18838,7 +18838,7 @@
         </is>
       </c>
       <c r="I428" t="n">
-        <v>634.37</v>
+        <v>489.28</v>
       </c>
     </row>
     <row r="429">
@@ -18881,7 +18881,7 @@
         </is>
       </c>
       <c r="I429" t="n">
-        <v>919.11</v>
+        <v>708.3099999999999</v>
       </c>
     </row>
     <row r="430">
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="I430" t="n">
-        <v>732.65</v>
+        <v>564.88</v>
       </c>
     </row>
     <row r="431">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="I431" t="n">
-        <v>699.37</v>
+        <v>539.28</v>
       </c>
     </row>
     <row r="432">
@@ -19010,7 +19010,7 @@
         </is>
       </c>
       <c r="I432" t="n">
-        <v>1056.54</v>
+        <v>814.02</v>
       </c>
     </row>
     <row r="433">
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="I433" t="n">
-        <v>671.9400000000001</v>
+        <v>518.1799999999999</v>
       </c>
     </row>
     <row r="434">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="I434" t="n">
-        <v>513.64</v>
+        <v>396.41</v>
       </c>
     </row>
     <row r="435">
@@ -19139,7 +19139,7 @@
         </is>
       </c>
       <c r="I435" t="n">
-        <v>559.85</v>
+        <v>431.95</v>
       </c>
     </row>
     <row r="436">
@@ -19182,7 +19182,7 @@
         </is>
       </c>
       <c r="I436" t="n">
-        <v>3727.49</v>
+        <v>2868.6</v>
       </c>
     </row>
     <row r="437">
@@ -19225,7 +19225,7 @@
         </is>
       </c>
       <c r="I437" t="n">
-        <v>1329.99</v>
+        <v>1024.37</v>
       </c>
     </row>
     <row r="438">
@@ -19268,7 +19268,7 @@
         </is>
       </c>
       <c r="I438" t="n">
-        <v>1013.69</v>
+        <v>781.0599999999999</v>
       </c>
     </row>
     <row r="439">
@@ -19311,7 +19311,7 @@
         </is>
       </c>
       <c r="I439" t="n">
-        <v>1896.78</v>
+        <v>1460.36</v>
       </c>
     </row>
     <row r="440">
@@ -19354,7 +19354,7 @@
         </is>
       </c>
       <c r="I440" t="n">
-        <v>1040.26</v>
+        <v>801.5</v>
       </c>
     </row>
     <row r="441">
@@ -19397,7 +19397,7 @@
         </is>
       </c>
       <c r="I441" t="n">
-        <v>181.16</v>
+        <v>140.65</v>
       </c>
     </row>
     <row r="442">
@@ -19440,7 +19440,7 @@
         </is>
       </c>
       <c r="I442" t="n">
-        <v>829.4</v>
+        <v>639.3</v>
       </c>
     </row>
     <row r="443">
@@ -19483,7 +19483,7 @@
         </is>
       </c>
       <c r="I443" t="n">
-        <v>761.25</v>
+        <v>586.88</v>
       </c>
     </row>
     <row r="444">
@@ -19526,7 +19526,7 @@
         </is>
       </c>
       <c r="I444" t="n">
-        <v>639.05</v>
+        <v>492.88</v>
       </c>
     </row>
     <row r="445">
@@ -19569,7 +19569,7 @@
         </is>
       </c>
       <c r="I445" t="n">
-        <v>1214.51</v>
+        <v>935.54</v>
       </c>
     </row>
     <row r="446">
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="I446" t="n">
-        <v>579.88</v>
+        <v>447.36</v>
       </c>
     </row>
     <row r="447">
@@ -19655,7 +19655,7 @@
         </is>
       </c>
       <c r="I447" t="n">
-        <v>639.05</v>
+        <v>492.88</v>
       </c>
     </row>
     <row r="448">
@@ -19698,7 +19698,7 @@
         </is>
       </c>
       <c r="I448" t="n">
-        <v>579.88</v>
+        <v>447.36</v>
       </c>
     </row>
     <row r="449">
@@ -19741,7 +19741,7 @@
         </is>
       </c>
       <c r="I449" t="n">
-        <v>579.88</v>
+        <v>447.36</v>
       </c>
     </row>
     <row r="450">
@@ -19784,7 +19784,7 @@
         </is>
       </c>
       <c r="I450" t="n">
-        <v>626.91</v>
+        <v>483.54</v>
       </c>
     </row>
     <row r="451">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="I451" t="n">
-        <v>213.2</v>
+        <v>165.3</v>
       </c>
     </row>
     <row r="452">
@@ -19870,7 +19870,7 @@
         </is>
       </c>
       <c r="I452" t="n">
-        <v>213.2</v>
+        <v>165.3</v>
       </c>
     </row>
     <row r="453">
@@ -19913,7 +19913,7 @@
         </is>
       </c>
       <c r="I453" t="n">
-        <v>1257.26</v>
+        <v>968.42</v>
       </c>
     </row>
     <row r="454">
@@ -19956,7 +19956,7 @@
         </is>
       </c>
       <c r="I454" t="n">
-        <v>964.6799999999999</v>
+        <v>743.36</v>
       </c>
     </row>
     <row r="455">
@@ -19999,7 +19999,7 @@
         </is>
       </c>
       <c r="I455" t="n">
-        <v>408.98</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="456">
@@ -20042,7 +20042,7 @@
         </is>
       </c>
       <c r="I456" t="n">
-        <v>963.51</v>
+        <v>742.46</v>
       </c>
     </row>
     <row r="457">
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="I457" t="n">
-        <v>484.52</v>
+        <v>374.01</v>
       </c>
     </row>
     <row r="458">
@@ -20128,7 +20128,7 @@
         </is>
       </c>
       <c r="I458" t="n">
-        <v>727.58</v>
+        <v>560.98</v>
       </c>
     </row>
     <row r="459">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="I459" t="n">
-        <v>447.37</v>
+        <v>345.43</v>
       </c>
     </row>
     <row r="460">
@@ -20214,7 +20214,7 @@
         </is>
       </c>
       <c r="I460" t="n">
-        <v>370.58</v>
+        <v>286.36</v>
       </c>
     </row>
     <row r="461">
@@ -20257,7 +20257,7 @@
         </is>
       </c>
       <c r="I461" t="n">
-        <v>596.78</v>
+        <v>460.36</v>
       </c>
     </row>
     <row r="462">
@@ -20300,7 +20300,7 @@
         </is>
       </c>
       <c r="I462" t="n">
-        <v>737.84</v>
+        <v>568.87</v>
       </c>
     </row>
     <row r="463">
@@ -20343,7 +20343,7 @@
         </is>
       </c>
       <c r="I463" t="n">
-        <v>316.28</v>
+        <v>244.59</v>
       </c>
     </row>
     <row r="464">
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="I464" t="n">
-        <v>714.78</v>
+        <v>551.13</v>
       </c>
     </row>
     <row r="465">
@@ -20429,7 +20429,7 @@
         </is>
       </c>
       <c r="I465" t="n">
-        <v>501.59</v>
+        <v>387.14</v>
       </c>
     </row>
     <row r="466">
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="I466" t="n">
-        <v>1366.11</v>
+        <v>1052.15</v>
       </c>
     </row>
     <row r="467">
@@ -20515,7 +20515,7 @@
         </is>
       </c>
       <c r="I467" t="n">
-        <v>470.16</v>
+        <v>362.96</v>
       </c>
     </row>
     <row r="468">
@@ -20558,7 +20558,7 @@
         </is>
       </c>
       <c r="I468" t="n">
-        <v>682.0599999999999</v>
+        <v>525.96</v>
       </c>
     </row>
     <row r="469">
@@ -20601,7 +20601,7 @@
         </is>
       </c>
       <c r="I469" t="n">
-        <v>1420.33</v>
+        <v>1093.86</v>
       </c>
     </row>
     <row r="470">
@@ -20644,7 +20644,7 @@
         </is>
       </c>
       <c r="I470" t="n">
-        <v>945.4</v>
+        <v>728.53</v>
       </c>
     </row>
     <row r="471">
@@ -20687,7 +20687,7 @@
         </is>
       </c>
       <c r="I471" t="n">
-        <v>655.86</v>
+        <v>505.81</v>
       </c>
     </row>
     <row r="472">
@@ -20730,7 +20730,7 @@
         </is>
       </c>
       <c r="I472" t="n">
-        <v>486.39</v>
+        <v>375.45</v>
       </c>
     </row>
     <row r="473">
@@ -20773,7 +20773,7 @@
         </is>
       </c>
       <c r="I473" t="n">
-        <v>474.68</v>
+        <v>366.44</v>
       </c>
     </row>
     <row r="474">
@@ -20816,7 +20816,7 @@
         </is>
       </c>
       <c r="I474" t="n">
-        <v>1209.21</v>
+        <v>931.46</v>
       </c>
     </row>
     <row r="475">
@@ -20859,7 +20859,7 @@
         </is>
       </c>
       <c r="I475" t="n">
-        <v>779.48</v>
+        <v>600.9</v>
       </c>
     </row>
     <row r="476">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="I476" t="n">
-        <v>424.18</v>
+        <v>327.59</v>
       </c>
     </row>
     <row r="477">
@@ -20945,7 +20945,7 @@
         </is>
       </c>
       <c r="I477" t="n">
-        <v>623.79</v>
+        <v>481.14</v>
       </c>
     </row>
     <row r="478">
@@ -20988,7 +20988,7 @@
         </is>
       </c>
       <c r="I478" t="n">
-        <v>1303.72</v>
+        <v>1004.16</v>
       </c>
     </row>
     <row r="479">
@@ -21031,7 +21031,7 @@
         </is>
       </c>
       <c r="I479" t="n">
-        <v>184.18</v>
+        <v>142.98</v>
       </c>
     </row>
     <row r="480">
@@ -21074,7 +21074,7 @@
         </is>
       </c>
       <c r="I480" t="n">
-        <v>460.84</v>
+        <v>355.79</v>
       </c>
     </row>
     <row r="481">
@@ -21117,7 +21117,7 @@
         </is>
       </c>
       <c r="I481" t="n">
-        <v>467.74</v>
+        <v>361.1</v>
       </c>
     </row>
     <row r="482">
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="I482" t="n">
-        <v>570.1</v>
+        <v>439.84</v>
       </c>
     </row>
     <row r="483">
@@ -21203,7 +21203,7 @@
         </is>
       </c>
       <c r="I483" t="n">
-        <v>1449.79</v>
+        <v>1116.52</v>
       </c>
     </row>
     <row r="484">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="I484" t="n">
-        <v>1680.09</v>
+        <v>1293.68</v>
       </c>
     </row>
     <row r="485">
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="I485" t="n">
-        <v>1618.23</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="486">
@@ -21332,7 +21332,7 @@
         </is>
       </c>
       <c r="I486" t="n">
-        <v>1590.39</v>
+        <v>1224.68</v>
       </c>
     </row>
     <row r="487">
@@ -21375,7 +21375,7 @@
         </is>
       </c>
       <c r="I487" t="n">
-        <v>775.6799999999999</v>
+        <v>597.98</v>
       </c>
     </row>
     <row r="488">
@@ -21418,7 +21418,7 @@
         </is>
       </c>
       <c r="I488" t="n">
-        <v>611.75</v>
+        <v>471.88</v>
       </c>
     </row>
     <row r="489">
@@ -21461,7 +21461,7 @@
         </is>
       </c>
       <c r="I489" t="n">
-        <v>761.54</v>
+        <v>587.1</v>
       </c>
     </row>
     <row r="490">
@@ -21504,7 +21504,7 @@
         </is>
       </c>
       <c r="I490" t="n">
-        <v>908.9299999999999</v>
+        <v>700.48</v>
       </c>
     </row>
     <row r="491">
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="I491" t="n">
-        <v>573.87</v>
+        <v>442.74</v>
       </c>
     </row>
     <row r="492">
@@ -21590,7 +21590,7 @@
         </is>
       </c>
       <c r="I492" t="n">
-        <v>850.97</v>
+        <v>655.89</v>
       </c>
     </row>
     <row r="493">
@@ -21633,7 +21633,7 @@
         </is>
       </c>
       <c r="I493" t="n">
-        <v>623.84</v>
+        <v>481.18</v>
       </c>
     </row>
     <row r="494">
@@ -21676,7 +21676,7 @@
         </is>
       </c>
       <c r="I494" t="n">
-        <v>618.2</v>
+        <v>476.84</v>
       </c>
     </row>
     <row r="495">
@@ -21719,7 +21719,7 @@
         </is>
       </c>
       <c r="I495" t="n">
-        <v>425.31</v>
+        <v>328.46</v>
       </c>
     </row>
     <row r="496">
@@ -21762,7 +21762,7 @@
         </is>
       </c>
       <c r="I496" t="n">
-        <v>360.93</v>
+        <v>278.94</v>
       </c>
     </row>
     <row r="497">
@@ -21805,7 +21805,7 @@
         </is>
       </c>
       <c r="I497" t="n">
-        <v>1458.33</v>
+        <v>1123.09</v>
       </c>
     </row>
     <row r="498">
@@ -21848,7 +21848,7 @@
         </is>
       </c>
       <c r="I498" t="n">
-        <v>894.6900000000001</v>
+        <v>689.52</v>
       </c>
     </row>
     <row r="499">
@@ -21891,7 +21891,7 @@
         </is>
       </c>
       <c r="I499" t="n">
-        <v>1335.67</v>
+        <v>1028.74</v>
       </c>
     </row>
     <row r="500">
@@ -21934,7 +21934,7 @@
         </is>
       </c>
       <c r="I500" t="n">
-        <v>334.66</v>
+        <v>258.73</v>
       </c>
     </row>
     <row r="501">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="I501" t="n">
-        <v>611.83</v>
+        <v>471.94</v>
       </c>
     </row>
     <row r="502">
@@ -22020,7 +22020,7 @@
         </is>
       </c>
       <c r="I502" t="n">
-        <v>416.09</v>
+        <v>321.37</v>
       </c>
     </row>
     <row r="503">
@@ -22063,7 +22063,7 @@
         </is>
       </c>
       <c r="I503" t="n">
-        <v>645.5700000000001</v>
+        <v>497.89</v>
       </c>
     </row>
     <row r="504">
@@ -22106,7 +22106,7 @@
         </is>
       </c>
       <c r="I504" t="n">
-        <v>642.46</v>
+        <v>495.5</v>
       </c>
     </row>
     <row r="505">
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="I505" t="n">
-        <v>759.64</v>
+        <v>585.64</v>
       </c>
     </row>
     <row r="506">
@@ -22192,7 +22192,7 @@
         </is>
       </c>
       <c r="I506" t="n">
-        <v>428.82</v>
+        <v>331.16</v>
       </c>
     </row>
     <row r="507">
@@ -22235,7 +22235,7 @@
         </is>
       </c>
       <c r="I507" t="n">
-        <v>653.2</v>
+        <v>503.76</v>
       </c>
     </row>
     <row r="508">
@@ -22278,7 +22278,7 @@
         </is>
       </c>
       <c r="I508" t="n">
-        <v>511.07</v>
+        <v>394.43</v>
       </c>
     </row>
     <row r="509">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="I509" t="n">
-        <v>199.12</v>
+        <v>154.47</v>
       </c>
     </row>
     <row r="510">
@@ -22364,7 +22364,7 @@
         </is>
       </c>
       <c r="I510" t="n">
-        <v>199.12</v>
+        <v>154.47</v>
       </c>
     </row>
     <row r="511">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="I511" t="n">
-        <v>945.1799999999999</v>
+        <v>728.36</v>
       </c>
     </row>
     <row r="512">
@@ -22450,7 +22450,7 @@
         </is>
       </c>
       <c r="I512" t="n">
-        <v>1528.01</v>
+        <v>1176.69</v>
       </c>
     </row>
     <row r="513">
@@ -22493,7 +22493,7 @@
         </is>
       </c>
       <c r="I513" t="n">
-        <v>1528.01</v>
+        <v>1176.69</v>
       </c>
     </row>
     <row r="514">
@@ -22536,7 +22536,7 @@
         </is>
       </c>
       <c r="I514" t="n">
-        <v>1146.59</v>
+        <v>883.29</v>
       </c>
     </row>
     <row r="515">
@@ -22579,7 +22579,7 @@
         </is>
       </c>
       <c r="I515" t="n">
-        <v>960.1900000000001</v>
+        <v>739.91</v>
       </c>
     </row>
     <row r="516">
@@ -22622,7 +22622,7 @@
         </is>
       </c>
       <c r="I516" t="n">
-        <v>960.1900000000001</v>
+        <v>739.91</v>
       </c>
     </row>
     <row r="517">
@@ -22665,7 +22665,7 @@
         </is>
       </c>
       <c r="I517" t="n">
-        <v>632.5</v>
+        <v>487.84</v>
       </c>
     </row>
     <row r="518">
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="I518" t="n">
-        <v>438.46</v>
+        <v>338.58</v>
       </c>
     </row>
     <row r="519">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="I519" t="n">
-        <v>1248.52</v>
+        <v>961.7</v>
       </c>
     </row>
     <row r="520">
@@ -22794,7 +22794,7 @@
         </is>
       </c>
       <c r="I520" t="n">
-        <v>992.64</v>
+        <v>764.87</v>
       </c>
     </row>
     <row r="521">
@@ -22837,7 +22837,7 @@
         </is>
       </c>
       <c r="I521" t="n">
-        <v>419.37</v>
+        <v>323.89</v>
       </c>
     </row>
     <row r="522">
@@ -22880,7 +22880,7 @@
         </is>
       </c>
       <c r="I522" t="n">
-        <v>1978.28</v>
+        <v>1523.05</v>
       </c>
     </row>
     <row r="523">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="I523" t="n">
-        <v>678.0700000000001</v>
+        <v>522.89</v>
       </c>
     </row>
     <row r="524">
@@ -22966,7 +22966,7 @@
         </is>
       </c>
       <c r="I524" t="n">
-        <v>872.7</v>
+        <v>672.61</v>
       </c>
     </row>
     <row r="525">
@@ -23009,7 +23009,7 @@
         </is>
       </c>
       <c r="I525" t="n">
-        <v>411.85</v>
+        <v>318.11</v>
       </c>
     </row>
     <row r="526">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="I526" t="n">
-        <v>761.36</v>
+        <v>586.96</v>
       </c>
     </row>
     <row r="527">
@@ -23095,7 +23095,7 @@
         </is>
       </c>
       <c r="I527" t="n">
-        <v>526.71</v>
+        <v>406.46</v>
       </c>
     </row>
     <row r="528">
@@ -23138,7 +23138,7 @@
         </is>
       </c>
       <c r="I528" t="n">
-        <v>411.85</v>
+        <v>318.11</v>
       </c>
     </row>
     <row r="529">
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="I529" t="n">
-        <v>1356.69</v>
+        <v>1044.91</v>
       </c>
     </row>
     <row r="530">
@@ -23224,7 +23224,7 @@
         </is>
       </c>
       <c r="I530" t="n">
-        <v>984.96</v>
+        <v>758.96</v>
       </c>
     </row>
     <row r="531">
@@ -23267,7 +23267,7 @@
         </is>
       </c>
       <c r="I531" t="n">
-        <v>794.77</v>
+        <v>612.66</v>
       </c>
     </row>
     <row r="532">
@@ -23310,7 +23310,7 @@
         </is>
       </c>
       <c r="I532" t="n">
-        <v>455.73</v>
+        <v>351.86</v>
       </c>
     </row>
     <row r="533">
@@ -23353,7 +23353,7 @@
         </is>
       </c>
       <c r="I533" t="n">
-        <v>283.19</v>
+        <v>219.14</v>
       </c>
     </row>
     <row r="534">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="I534" t="n">
-        <v>283.19</v>
+        <v>219.14</v>
       </c>
     </row>
     <row r="535">
@@ -23439,7 +23439,7 @@
         </is>
       </c>
       <c r="I535" t="n">
-        <v>672.88</v>
+        <v>518.9</v>
       </c>
     </row>
     <row r="536">
@@ -23482,7 +23482,7 @@
         </is>
       </c>
       <c r="I536" t="n">
-        <v>470.6</v>
+        <v>363.3</v>
       </c>
     </row>
     <row r="537">
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="I537" t="n">
-        <v>264.76</v>
+        <v>204.96</v>
       </c>
     </row>
     <row r="538">
@@ -23568,7 +23568,7 @@
         </is>
       </c>
       <c r="I538" t="n">
-        <v>323.35</v>
+        <v>250.03</v>
       </c>
     </row>
     <row r="539">
@@ -23611,7 +23611,7 @@
         </is>
       </c>
       <c r="I539" t="n">
-        <v>698.63</v>
+        <v>538.71</v>
       </c>
     </row>
     <row r="540">
@@ -23654,7 +23654,7 @@
         </is>
       </c>
       <c r="I540" t="n">
-        <v>2607.15</v>
+        <v>2006.8</v>
       </c>
     </row>
     <row r="541">
@@ -23697,7 +23697,7 @@
         </is>
       </c>
       <c r="I541" t="n">
-        <v>734.9</v>
+        <v>566.61</v>
       </c>
     </row>
     <row r="542">
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="I542" t="n">
-        <v>7715.5</v>
+        <v>5936.3</v>
       </c>
     </row>
     <row r="543">
@@ -23783,7 +23783,7 @@
         </is>
       </c>
       <c r="I543" t="n">
-        <v>801.9299999999999</v>
+        <v>618.17</v>
       </c>
     </row>
     <row r="544">
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="I544" t="n">
-        <v>749.55</v>
+        <v>577.88</v>
       </c>
     </row>
     <row r="545">
@@ -23869,7 +23869,7 @@
         </is>
       </c>
       <c r="I545" t="n">
-        <v>1063.02</v>
+        <v>819.01</v>
       </c>
     </row>
     <row r="546">
@@ -23912,7 +23912,7 @@
         </is>
       </c>
       <c r="I546" t="n">
-        <v>282.28</v>
+        <v>218.44</v>
       </c>
     </row>
     <row r="547">
@@ -23955,7 +23955,7 @@
         </is>
       </c>
       <c r="I547" t="n">
-        <v>419.48</v>
+        <v>323.98</v>
       </c>
     </row>
     <row r="548">
@@ -23998,7 +23998,7 @@
         </is>
       </c>
       <c r="I548" t="n">
-        <v>1315.89</v>
+        <v>1013.52</v>
       </c>
     </row>
     <row r="549">
@@ -24041,7 +24041,7 @@
         </is>
       </c>
       <c r="I549" t="n">
-        <v>521.5</v>
+        <v>402.45</v>
       </c>
     </row>
     <row r="550">
@@ -24084,7 +24084,7 @@
         </is>
       </c>
       <c r="I550" t="n">
-        <v>1371.58</v>
+        <v>1056.36</v>
       </c>
     </row>
     <row r="551">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="I551" t="n">
-        <v>730.48</v>
+        <v>563.21</v>
       </c>
     </row>
     <row r="552">
@@ -24170,7 +24170,7 @@
         </is>
       </c>
       <c r="I552" t="n">
-        <v>553.25</v>
+        <v>426.88</v>
       </c>
     </row>
     <row r="553">
@@ -24213,7 +24213,7 @@
         </is>
       </c>
       <c r="I553" t="n">
-        <v>735.36</v>
+        <v>566.96</v>
       </c>
     </row>
     <row r="554">
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="I554" t="n">
-        <v>1057.29</v>
+        <v>814.6</v>
       </c>
     </row>
     <row r="555">
@@ -24299,7 +24299,7 @@
         </is>
       </c>
       <c r="I555" t="n">
-        <v>321.41</v>
+        <v>248.54</v>
       </c>
     </row>
     <row r="556">
@@ -24342,7 +24342,7 @@
         </is>
       </c>
       <c r="I556" t="n">
-        <v>304.29</v>
+        <v>235.37</v>
       </c>
     </row>
     <row r="557">
@@ -24385,7 +24385,7 @@
         </is>
       </c>
       <c r="I557" t="n">
-        <v>321.41</v>
+        <v>248.54</v>
       </c>
     </row>
     <row r="558">
@@ -24428,7 +24428,7 @@
         </is>
       </c>
       <c r="I558" t="n">
-        <v>549.55</v>
+        <v>424.03</v>
       </c>
     </row>
     <row r="559">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="I559" t="n">
-        <v>2544.96</v>
+        <v>1958.96</v>
       </c>
     </row>
     <row r="560">
@@ -24514,7 +24514,7 @@
         </is>
       </c>
       <c r="I560" t="n">
-        <v>636.4</v>
+        <v>490.84</v>
       </c>
     </row>
     <row r="561">
@@ -24557,7 +24557,7 @@
         </is>
       </c>
       <c r="I561" t="n">
-        <v>784.03</v>
+        <v>604.4</v>
       </c>
     </row>
     <row r="562">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="I562" t="n">
-        <v>508.9</v>
+        <v>392.76</v>
       </c>
     </row>
     <row r="563">
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="I563" t="n">
-        <v>296.39</v>
+        <v>229.29</v>
       </c>
     </row>
     <row r="564">
@@ -24686,7 +24686,7 @@
         </is>
       </c>
       <c r="I564" t="n">
-        <v>813.0700000000001</v>
+        <v>626.74</v>
       </c>
     </row>
     <row r="565">
@@ -24729,7 +24729,7 @@
         </is>
       </c>
       <c r="I565" t="n">
-        <v>1068.29</v>
+        <v>823.0599999999999</v>
       </c>
     </row>
     <row r="566">
@@ -24772,7 +24772,7 @@
         </is>
       </c>
       <c r="I566" t="n">
-        <v>1436.25</v>
+        <v>1106.11</v>
       </c>
     </row>
     <row r="567">
@@ -24815,7 +24815,7 @@
         </is>
       </c>
       <c r="I567" t="n">
-        <v>447.25</v>
+        <v>345.34</v>
       </c>
     </row>
     <row r="568">
@@ -24858,7 +24858,7 @@
         </is>
       </c>
       <c r="I568" t="n">
-        <v>1573.31</v>
+        <v>1211.54</v>
       </c>
     </row>
     <row r="569">
@@ -24901,7 +24901,7 @@
         </is>
       </c>
       <c r="I569" t="n">
-        <v>804.6</v>
+        <v>620.22</v>
       </c>
     </row>
     <row r="570">
@@ -24944,7 +24944,7 @@
         </is>
       </c>
       <c r="I570" t="n">
-        <v>813.0700000000001</v>
+        <v>626.74</v>
       </c>
     </row>
     <row r="571">
@@ -24987,7 +24987,7 @@
         </is>
       </c>
       <c r="I571" t="n">
-        <v>3736.29</v>
+        <v>2875.37</v>
       </c>
     </row>
     <row r="572">
@@ -25030,7 +25030,7 @@
         </is>
       </c>
       <c r="I572" t="n">
-        <v>507.01</v>
+        <v>391.31</v>
       </c>
     </row>
     <row r="573">
@@ -25073,7 +25073,7 @@
         </is>
       </c>
       <c r="I573" t="n">
-        <v>482.92</v>
+        <v>372.78</v>
       </c>
     </row>
     <row r="574">
@@ -25116,7 +25116,7 @@
         </is>
       </c>
       <c r="I574" t="n">
-        <v>635.52</v>
+        <v>490.16</v>
       </c>
     </row>
     <row r="575">
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="I575" t="n">
-        <v>1372.25</v>
+        <v>1056.88</v>
       </c>
     </row>
     <row r="576">
@@ -25202,7 +25202,7 @@
         </is>
       </c>
       <c r="I576" t="n">
-        <v>505.91</v>
+        <v>390.46</v>
       </c>
     </row>
     <row r="577">
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="I577" t="n">
-        <v>388.8</v>
+        <v>300.38</v>
       </c>
     </row>
     <row r="578">
@@ -25288,7 +25288,7 @@
         </is>
       </c>
       <c r="I578" t="n">
-        <v>505.96</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="579">
@@ -25331,7 +25331,7 @@
         </is>
       </c>
       <c r="I579" t="n">
-        <v>317.23</v>
+        <v>245.32</v>
       </c>
     </row>
     <row r="580">
@@ -25374,7 +25374,7 @@
         </is>
       </c>
       <c r="I580" t="n">
-        <v>1324.36</v>
+        <v>1020.04</v>
       </c>
     </row>
     <row r="581">
@@ -25417,7 +25417,7 @@
         </is>
       </c>
       <c r="I581" t="n">
-        <v>608.35</v>
+        <v>469.26</v>
       </c>
     </row>
     <row r="582">
@@ -25460,7 +25460,7 @@
         </is>
       </c>
       <c r="I582" t="n">
-        <v>597.97</v>
+        <v>461.28</v>
       </c>
     </row>
     <row r="583">
@@ -25503,7 +25503,7 @@
         </is>
       </c>
       <c r="I583" t="n">
-        <v>976.6900000000001</v>
+        <v>752.6</v>
       </c>
     </row>
     <row r="584">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="I584" t="n">
-        <v>1129.49</v>
+        <v>870.14</v>
       </c>
     </row>
     <row r="585">
@@ -25589,7 +25589,7 @@
         </is>
       </c>
       <c r="I585" t="n">
-        <v>1797.68</v>
+        <v>1384.13</v>
       </c>
     </row>
     <row r="586">
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="I586" t="n">
-        <v>381.13</v>
+        <v>294.48</v>
       </c>
     </row>
     <row r="587">
@@ -25675,7 +25675,7 @@
         </is>
       </c>
       <c r="I587" t="n">
-        <v>1065.06</v>
+        <v>820.58</v>
       </c>
     </row>
     <row r="588">
@@ -25718,7 +25718,7 @@
         </is>
       </c>
       <c r="I588" t="n">
-        <v>720.21</v>
+        <v>555.3099999999999</v>
       </c>
     </row>
     <row r="589">
@@ -25761,7 +25761,7 @@
         </is>
       </c>
       <c r="I589" t="n">
-        <v>2006.39</v>
+        <v>1544.68</v>
       </c>
     </row>
     <row r="590">
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="I590" t="n">
-        <v>454.48</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="591">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="I591" t="n">
-        <v>2492.85</v>
+        <v>1918.88</v>
       </c>
     </row>
     <row r="592">
@@ -25890,7 +25890,7 @@
         </is>
       </c>
       <c r="I592" t="n">
-        <v>506.4</v>
+        <v>390.84</v>
       </c>
     </row>
     <row r="593">
@@ -25933,7 +25933,7 @@
         </is>
       </c>
       <c r="I593" t="n">
-        <v>339.29</v>
+        <v>262.29</v>
       </c>
     </row>
     <row r="594">
@@ -25976,7 +25976,7 @@
         </is>
       </c>
       <c r="I594" t="n">
-        <v>819.85</v>
+        <v>631.95</v>
       </c>
     </row>
     <row r="595">
@@ -26019,7 +26019,7 @@
         </is>
       </c>
       <c r="I595" t="n">
-        <v>535.24</v>
+        <v>413.02</v>
       </c>
     </row>
     <row r="596">
@@ -26062,7 +26062,7 @@
         </is>
       </c>
       <c r="I596" t="n">
-        <v>1254.88</v>
+        <v>966.59</v>
       </c>
     </row>
     <row r="597">
@@ -26105,7 +26105,7 @@
         </is>
       </c>
       <c r="I597" t="n">
-        <v>1070.77</v>
+        <v>824.97</v>
       </c>
     </row>
     <row r="598">
@@ -26148,7 +26148,7 @@
         </is>
       </c>
       <c r="I598" t="n">
-        <v>440.44</v>
+        <v>340.1</v>
       </c>
     </row>
     <row r="599">
@@ -26191,7 +26191,7 @@
         </is>
       </c>
       <c r="I599" t="n">
-        <v>1251.93</v>
+        <v>964.3200000000001</v>
       </c>
     </row>
     <row r="600">
@@ -26234,7 +26234,7 @@
         </is>
       </c>
       <c r="I600" t="n">
-        <v>525.62</v>
+        <v>405.62</v>
       </c>
     </row>
     <row r="601">
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="I601" t="n">
-        <v>996.22</v>
+        <v>767.62</v>
       </c>
     </row>
     <row r="602">
@@ -26320,7 +26320,7 @@
         </is>
       </c>
       <c r="I602" t="n">
-        <v>1176.03</v>
+        <v>905.9400000000001</v>
       </c>
     </row>
     <row r="603">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="I603" t="n">
-        <v>477.41</v>
+        <v>368.54</v>
       </c>
     </row>
     <row r="604">
@@ -26406,7 +26406,7 @@
         </is>
       </c>
       <c r="I604" t="n">
-        <v>681.77</v>
+        <v>525.74</v>
       </c>
     </row>
     <row r="605">
@@ -26449,7 +26449,7 @@
         </is>
       </c>
       <c r="I605" t="n">
-        <v>825.49</v>
+        <v>636.29</v>
       </c>
     </row>
     <row r="606">
@@ -26492,7 +26492,7 @@
         </is>
       </c>
       <c r="I606" t="n">
-        <v>958.85</v>
+        <v>738.88</v>
       </c>
     </row>
     <row r="607">
@@ -26535,7 +26535,7 @@
         </is>
       </c>
       <c r="I607" t="n">
-        <v>555.2</v>
+        <v>428.38</v>
       </c>
     </row>
     <row r="608">
@@ -26578,7 +26578,7 @@
         </is>
       </c>
       <c r="I608" t="n">
-        <v>992.4299999999999</v>
+        <v>764.71</v>
       </c>
     </row>
     <row r="609">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="I609" t="n">
-        <v>1440.89</v>
+        <v>1109.68</v>
       </c>
     </row>
     <row r="610">
@@ -26664,7 +26664,7 @@
         </is>
       </c>
       <c r="I610" t="n">
-        <v>845.77</v>
+        <v>651.89</v>
       </c>
     </row>
     <row r="611">
@@ -26707,7 +26707,7 @@
         </is>
       </c>
       <c r="I611" t="n">
-        <v>739.54</v>
+        <v>570.1799999999999</v>
       </c>
     </row>
     <row r="612">
@@ -26750,7 +26750,7 @@
         </is>
       </c>
       <c r="I612" t="n">
-        <v>1508.2</v>
+        <v>1161.45</v>
       </c>
     </row>
     <row r="613">
@@ -26793,7 +26793,7 @@
         </is>
       </c>
       <c r="I613" t="n">
-        <v>548.52</v>
+        <v>423.24</v>
       </c>
     </row>
     <row r="614">
@@ -26836,7 +26836,7 @@
         </is>
       </c>
       <c r="I614" t="n">
-        <v>940.2</v>
+        <v>724.53</v>
       </c>
     </row>
     <row r="615">
@@ -26879,7 +26879,7 @@
         </is>
       </c>
       <c r="I615" t="n">
-        <v>979.2</v>
+        <v>754.53</v>
       </c>
     </row>
     <row r="616">
@@ -26922,7 +26922,7 @@
         </is>
       </c>
       <c r="I616" t="n">
-        <v>579.25</v>
+        <v>446.88</v>
       </c>
     </row>
     <row r="617">
@@ -26965,7 +26965,7 @@
         </is>
       </c>
       <c r="I617" t="n">
-        <v>927.1900000000001</v>
+        <v>714.52</v>
       </c>
     </row>
     <row r="618">
@@ -27008,7 +27008,7 @@
         </is>
       </c>
       <c r="I618" t="n">
-        <v>533.4400000000001</v>
+        <v>411.64</v>
       </c>
     </row>
     <row r="619">
@@ -27051,7 +27051,7 @@
         </is>
       </c>
       <c r="I619" t="n">
-        <v>656.01</v>
+        <v>505.92</v>
       </c>
     </row>
     <row r="620">
@@ -27094,7 +27094,7 @@
         </is>
       </c>
       <c r="I620" t="n">
-        <v>1304.2</v>
+        <v>1004.53</v>
       </c>
     </row>
     <row r="621">
@@ -27137,7 +27137,7 @@
         </is>
       </c>
       <c r="I621" t="n">
-        <v>230.78</v>
+        <v>178.82</v>
       </c>
     </row>
     <row r="622">
@@ -27180,7 +27180,7 @@
         </is>
       </c>
       <c r="I622" t="n">
-        <v>193.35</v>
+        <v>150.03</v>
       </c>
     </row>
     <row r="623">
@@ -27223,7 +27223,7 @@
         </is>
       </c>
       <c r="I623" t="n">
-        <v>1337.9</v>
+        <v>1030.45</v>
       </c>
     </row>
     <row r="624">
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="I624" t="n">
-        <v>757.12</v>
+        <v>583.7</v>
       </c>
     </row>
     <row r="625">
@@ -27309,7 +27309,7 @@
         </is>
       </c>
       <c r="I625" t="n">
-        <v>608.78</v>
+        <v>469.59</v>
       </c>
     </row>
     <row r="626">
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="I626" t="n">
-        <v>829.7</v>
+        <v>639.53</v>
       </c>
     </row>
     <row r="627">
@@ -27395,7 +27395,7 @@
         </is>
       </c>
       <c r="I627" t="n">
-        <v>294.55</v>
+        <v>227.88</v>
       </c>
     </row>
     <row r="628">
@@ -27438,7 +27438,7 @@
         </is>
       </c>
       <c r="I628" t="n">
-        <v>176.12</v>
+        <v>136.78</v>
       </c>
     </row>
     <row r="629">
@@ -27481,7 +27481,7 @@
         </is>
       </c>
       <c r="I629" t="n">
-        <v>444.08</v>
+        <v>342.9</v>
       </c>
     </row>
     <row r="630">
@@ -27524,7 +27524,7 @@
         </is>
       </c>
       <c r="I630" t="n">
-        <v>1189.99</v>
+        <v>916.6799999999999</v>
       </c>
     </row>
     <row r="631">
@@ -27567,7 +27567,7 @@
         </is>
       </c>
       <c r="I631" t="n">
-        <v>1097.1</v>
+        <v>845.22</v>
       </c>
     </row>
     <row r="632">
@@ -27610,7 +27610,7 @@
         </is>
       </c>
       <c r="I632" t="n">
-        <v>444.05</v>
+        <v>342.88</v>
       </c>
     </row>
     <row r="633">
@@ -27653,7 +27653,7 @@
         </is>
       </c>
       <c r="I633" t="n">
-        <v>444.05</v>
+        <v>342.88</v>
       </c>
     </row>
     <row r="634">
@@ -27696,7 +27696,7 @@
         </is>
       </c>
       <c r="I634" t="n">
-        <v>889.39</v>
+        <v>685.45</v>
       </c>
     </row>
     <row r="635">
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="I635" t="n">
-        <v>340.05</v>
+        <v>262.88</v>
       </c>
     </row>
     <row r="636">
@@ -27782,7 +27782,7 @@
         </is>
       </c>
       <c r="I636" t="n">
-        <v>766.49</v>
+        <v>590.91</v>
       </c>
     </row>
     <row r="637">
@@ -27825,7 +27825,7 @@
         </is>
       </c>
       <c r="I637" t="n">
-        <v>766.49</v>
+        <v>590.91</v>
       </c>
     </row>
     <row r="638">
@@ -27868,7 +27868,7 @@
         </is>
       </c>
       <c r="I638" t="n">
-        <v>860.5700000000001</v>
+        <v>663.28</v>
       </c>
     </row>
     <row r="639">
@@ -27911,7 +27911,7 @@
         </is>
       </c>
       <c r="I639" t="n">
-        <v>1051.26</v>
+        <v>809.96</v>
       </c>
     </row>
     <row r="640">
@@ -27954,7 +27954,7 @@
         </is>
       </c>
       <c r="I640" t="n">
-        <v>275.55</v>
+        <v>213.26</v>
       </c>
     </row>
     <row r="641">
@@ -27997,7 +27997,7 @@
         </is>
       </c>
       <c r="I641" t="n">
-        <v>278.11</v>
+        <v>215.23</v>
       </c>
     </row>
     <row r="642">
@@ -28040,7 +28040,7 @@
         </is>
       </c>
       <c r="I642" t="n">
-        <v>1642.65</v>
+        <v>1264.88</v>
       </c>
     </row>
     <row r="643">
@@ -28083,7 +28083,7 @@
         </is>
       </c>
       <c r="I643" t="n">
-        <v>1454.32</v>
+        <v>1120.01</v>
       </c>
     </row>
     <row r="644">
@@ -28126,7 +28126,7 @@
         </is>
       </c>
       <c r="I644" t="n">
-        <v>457.05</v>
+        <v>352.88</v>
       </c>
     </row>
     <row r="645">
@@ -28169,7 +28169,7 @@
         </is>
       </c>
       <c r="I645" t="n">
-        <v>1190.35</v>
+        <v>916.95</v>
       </c>
     </row>
     <row r="646">
@@ -28212,7 +28212,7 @@
         </is>
       </c>
       <c r="I646" t="n">
-        <v>1015.3</v>
+        <v>782.3</v>
       </c>
     </row>
     <row r="647">
@@ -28255,7 +28255,7 @@
         </is>
       </c>
       <c r="I647" t="n">
-        <v>858.21</v>
+        <v>661.46</v>
       </c>
     </row>
     <row r="648">
@@ -28298,7 +28298,7 @@
         </is>
       </c>
       <c r="I648" t="n">
-        <v>1411.36</v>
+        <v>1086.96</v>
       </c>
     </row>
     <row r="649">
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="I649" t="n">
-        <v>635.52</v>
+        <v>490.16</v>
       </c>
     </row>
     <row r="650">
@@ -28384,7 +28384,7 @@
         </is>
       </c>
       <c r="I650" t="n">
-        <v>590.04</v>
+        <v>455.18</v>
       </c>
     </row>
     <row r="651">
@@ -28427,7 +28427,7 @@
         </is>
       </c>
       <c r="I651" t="n">
-        <v>617.14</v>
+        <v>476.02</v>
       </c>
     </row>
     <row r="652">
@@ -28470,7 +28470,7 @@
         </is>
       </c>
       <c r="I652" t="n">
-        <v>804.25</v>
+        <v>619.95</v>
       </c>
     </row>
     <row r="653">
@@ -28513,7 +28513,7 @@
         </is>
       </c>
       <c r="I653" t="n">
-        <v>1805.91</v>
+        <v>1390.46</v>
       </c>
     </row>
     <row r="654">
@@ -28556,7 +28556,7 @@
         </is>
       </c>
       <c r="I654" t="n">
-        <v>280.58</v>
+        <v>217.13</v>
       </c>
     </row>
     <row r="655">
@@ -28599,7 +28599,7 @@
         </is>
       </c>
       <c r="I655" t="n">
-        <v>1069.81</v>
+        <v>824.23</v>
       </c>
     </row>
     <row r="656">
@@ -28642,7 +28642,7 @@
         </is>
       </c>
       <c r="I656" t="n">
-        <v>963.38</v>
+        <v>742.36</v>
       </c>
     </row>
     <row r="657">
@@ -28685,7 +28685,7 @@
         </is>
       </c>
       <c r="I657" t="n">
-        <v>1036.82</v>
+        <v>798.85</v>
       </c>
     </row>
     <row r="658">
@@ -28728,7 +28728,7 @@
         </is>
       </c>
       <c r="I658" t="n">
-        <v>1104.19</v>
+        <v>850.6799999999999</v>
       </c>
     </row>
     <row r="659">
@@ -28771,7 +28771,7 @@
         </is>
       </c>
       <c r="I659" t="n">
-        <v>883.53</v>
+        <v>680.9400000000001</v>
       </c>
     </row>
     <row r="660">
@@ -28814,7 +28814,7 @@
         </is>
       </c>
       <c r="I660" t="n">
-        <v>600.05</v>
+        <v>462.88</v>
       </c>
     </row>
     <row r="661">
@@ -28857,7 +28857,7 @@
         </is>
       </c>
       <c r="I661" t="n">
-        <v>1083.21</v>
+        <v>834.54</v>
       </c>
     </row>
     <row r="662">
@@ -28900,7 +28900,7 @@
         </is>
       </c>
       <c r="I662" t="n">
-        <v>945.85</v>
+        <v>728.88</v>
       </c>
     </row>
     <row r="663">
@@ -28943,7 +28943,7 @@
         </is>
       </c>
       <c r="I663" t="n">
-        <v>945.85</v>
+        <v>728.88</v>
       </c>
     </row>
     <row r="664">
@@ -28986,7 +28986,7 @@
         </is>
       </c>
       <c r="I664" t="n">
-        <v>508.14</v>
+        <v>392.18</v>
       </c>
     </row>
     <row r="665">
@@ -29029,7 +29029,7 @@
         </is>
       </c>
       <c r="I665" t="n">
-        <v>615.16</v>
+        <v>474.5</v>
       </c>
     </row>
     <row r="666">
@@ -29072,7 +29072,7 @@
         </is>
       </c>
       <c r="I666" t="n">
-        <v>1068.16</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="667">
@@ -29115,7 +29115,7 @@
         </is>
       </c>
       <c r="I667" t="n">
-        <v>454.1</v>
+        <v>350.61</v>
       </c>
     </row>
     <row r="668">
@@ -29158,7 +29158,7 @@
         </is>
       </c>
       <c r="I668" t="n">
-        <v>1068.16</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="669">
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="I669" t="n">
-        <v>945.85</v>
+        <v>728.88</v>
       </c>
     </row>
     <row r="670">
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="I670" t="n">
-        <v>909.4299999999999</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="671">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="I671" t="n">
-        <v>4823.25</v>
+        <v>3711.49</v>
       </c>
     </row>
     <row r="672">
@@ -29330,7 +29330,7 @@
         </is>
       </c>
       <c r="I672" t="n">
-        <v>1189.99</v>
+        <v>916.6799999999999</v>
       </c>
     </row>
     <row r="673">
@@ -29373,7 +29373,7 @@
         </is>
       </c>
       <c r="I673" t="n">
-        <v>747.47</v>
+        <v>576.28</v>
       </c>
     </row>
     <row r="674">
@@ -29416,7 +29416,7 @@
         </is>
       </c>
       <c r="I674" t="n">
-        <v>2384.04</v>
+        <v>1835.18</v>
       </c>
     </row>
     <row r="675">
@@ -29459,7 +29459,7 @@
         </is>
       </c>
       <c r="I675" t="n">
-        <v>1900.89</v>
+        <v>1463.52</v>
       </c>
     </row>
     <row r="676">
@@ -29502,7 +29502,7 @@
         </is>
       </c>
       <c r="I676" t="n">
-        <v>662.65</v>
+        <v>511.03</v>
       </c>
     </row>
     <row r="677">
@@ -29545,7 +29545,7 @@
         </is>
       </c>
       <c r="I677" t="n">
-        <v>832.48</v>
+        <v>641.67</v>
       </c>
     </row>
     <row r="678">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="I678" t="n">
-        <v>686.14</v>
+        <v>529.1</v>
       </c>
     </row>
     <row r="679">
@@ -29631,7 +29631,7 @@
         </is>
       </c>
       <c r="I679" t="n">
-        <v>1451.98</v>
+        <v>1118.21</v>
       </c>
     </row>
     <row r="680">
@@ -29674,7 +29674,7 @@
         </is>
       </c>
       <c r="I680" t="n">
-        <v>1368.35</v>
+        <v>1053.88</v>
       </c>
     </row>
     <row r="681">
@@ -29717,7 +29717,7 @@
         </is>
       </c>
       <c r="I681" t="n">
-        <v>1055.33</v>
+        <v>813.09</v>
       </c>
     </row>
     <row r="682">
@@ -29760,7 +29760,7 @@
         </is>
       </c>
       <c r="I682" t="n">
-        <v>1068.04</v>
+        <v>822.87</v>
       </c>
     </row>
     <row r="683">
@@ -29803,7 +29803,7 @@
         </is>
       </c>
       <c r="I683" t="n">
-        <v>942.08</v>
+        <v>725.98</v>
       </c>
     </row>
     <row r="684">
@@ -29846,7 +29846,7 @@
         </is>
       </c>
       <c r="I684" t="n">
-        <v>1329.3</v>
+        <v>1023.84</v>
       </c>
     </row>
     <row r="685">
@@ -29889,7 +29889,7 @@
         </is>
       </c>
       <c r="I685" t="n">
-        <v>5073.68</v>
+        <v>3904.13</v>
       </c>
     </row>
     <row r="686">
@@ -29932,7 +29932,7 @@
         </is>
       </c>
       <c r="I686" t="n">
-        <v>248.25</v>
+        <v>192.26</v>
       </c>
     </row>
     <row r="687">
@@ -29975,7 +29975,7 @@
         </is>
       </c>
       <c r="I687" t="n">
-        <v>822.22</v>
+        <v>633.78</v>
       </c>
     </row>
     <row r="688">
@@ -30018,7 +30018,7 @@
         </is>
       </c>
       <c r="I688" t="n">
-        <v>637.87</v>
+        <v>491.97</v>
       </c>
     </row>
     <row r="689">
@@ -30061,7 +30061,7 @@
         </is>
       </c>
       <c r="I689" t="n">
-        <v>822.22</v>
+        <v>633.78</v>
       </c>
     </row>
     <row r="690">
@@ -30104,7 +30104,7 @@
         </is>
       </c>
       <c r="I690" t="n">
-        <v>443.9</v>
+        <v>342.76</v>
       </c>
     </row>
     <row r="691">
@@ -30147,7 +30147,7 @@
         </is>
       </c>
       <c r="I691" t="n">
-        <v>945.4</v>
+        <v>728.53</v>
       </c>
     </row>
     <row r="692">
@@ -30190,7 +30190,7 @@
         </is>
       </c>
       <c r="I692" t="n">
-        <v>677.55</v>
+        <v>522.49</v>
       </c>
     </row>
     <row r="693">
@@ -30233,7 +30233,7 @@
         </is>
       </c>
       <c r="I693" t="n">
-        <v>930.75</v>
+        <v>717.26</v>
       </c>
     </row>
     <row r="694">
@@ -30276,7 +30276,7 @@
         </is>
       </c>
       <c r="I694" t="n">
-        <v>1638.49</v>
+        <v>1261.68</v>
       </c>
     </row>
     <row r="695">
@@ -30319,7 +30319,7 @@
         </is>
       </c>
       <c r="I695" t="n">
-        <v>425.14</v>
+        <v>328.33</v>
       </c>
     </row>
     <row r="696">
@@ -30362,7 +30362,7 @@
         </is>
       </c>
       <c r="I696" t="n">
-        <v>918.4</v>
+        <v>707.76</v>
       </c>
     </row>
     <row r="697">
@@ -30405,7 +30405,7 @@
         </is>
       </c>
       <c r="I697" t="n">
-        <v>1510.9</v>
+        <v>1163.53</v>
       </c>
     </row>
     <row r="698">
@@ -30448,7 +30448,7 @@
         </is>
       </c>
       <c r="I698" t="n">
-        <v>1078.75</v>
+        <v>831.11</v>
       </c>
     </row>
     <row r="699">
@@ -30491,7 +30491,7 @@
         </is>
       </c>
       <c r="I699" t="n">
-        <v>11481.69</v>
+        <v>8833.370000000001</v>
       </c>
     </row>
     <row r="700">
@@ -30534,7 +30534,7 @@
         </is>
       </c>
       <c r="I700" t="n">
-        <v>267.83</v>
+        <v>207.32</v>
       </c>
     </row>
     <row r="701">
@@ -30577,7 +30577,7 @@
         </is>
       </c>
       <c r="I701" t="n">
-        <v>290.65</v>
+        <v>224.88</v>
       </c>
     </row>
     <row r="702">
@@ -30620,7 +30620,7 @@
         </is>
       </c>
       <c r="I702" t="n">
-        <v>538.72</v>
+        <v>415.7</v>
       </c>
     </row>
     <row r="703">
@@ -30663,7 +30663,7 @@
         </is>
       </c>
       <c r="I703" t="n">
-        <v>553.24</v>
+        <v>426.87</v>
       </c>
     </row>
     <row r="704">
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="I704" t="n">
-        <v>308.75</v>
+        <v>238.8</v>
       </c>
     </row>
     <row r="705">
@@ -30749,7 +30749,7 @@
         </is>
       </c>
       <c r="I705" t="n">
-        <v>389.94</v>
+        <v>301.25</v>
       </c>
     </row>
     <row r="706">
@@ -30792,7 +30792,7 @@
         </is>
       </c>
       <c r="I706" t="n">
-        <v>437.46</v>
+        <v>337.81</v>
       </c>
     </row>
     <row r="707">
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="I707" t="n">
-        <v>765.5700000000001</v>
+        <v>590.2</v>
       </c>
     </row>
     <row r="708">
@@ -30878,7 +30878,7 @@
         </is>
       </c>
       <c r="I708" t="n">
-        <v>1068.72</v>
+        <v>823.39</v>
       </c>
     </row>
     <row r="709">
@@ -30921,7 +30921,7 @@
         </is>
       </c>
       <c r="I709" t="n">
-        <v>1120.9</v>
+        <v>863.53</v>
       </c>
     </row>
     <row r="710">
@@ -30964,7 +30964,7 @@
         </is>
       </c>
       <c r="I710" t="n">
-        <v>1673.87</v>
+        <v>1288.89</v>
       </c>
     </row>
     <row r="711">
@@ -31007,7 +31007,7 @@
         </is>
       </c>
       <c r="I711" t="n">
-        <v>432.94</v>
+        <v>334.33</v>
       </c>
     </row>
     <row r="712">
@@ -31050,7 +31050,7 @@
         </is>
       </c>
       <c r="I712" t="n">
-        <v>1196.27</v>
+        <v>921.51</v>
       </c>
     </row>
     <row r="713">
@@ -31093,7 +31093,7 @@
         </is>
       </c>
       <c r="I713" t="n">
-        <v>1659.75</v>
+        <v>1278.03</v>
       </c>
     </row>
     <row r="714">
@@ -31136,7 +31136,7 @@
         </is>
       </c>
       <c r="I714" t="n">
-        <v>610.9400000000001</v>
+        <v>471.25</v>
       </c>
     </row>
     <row r="715">
@@ -31179,7 +31179,7 @@
         </is>
       </c>
       <c r="I715" t="n">
-        <v>1434.67</v>
+        <v>1104.89</v>
       </c>
     </row>
     <row r="716">
@@ -31222,7 +31222,7 @@
         </is>
       </c>
       <c r="I716" t="n">
-        <v>583.63</v>
+        <v>450.25</v>
       </c>
     </row>
     <row r="717">
@@ -31265,7 +31265,7 @@
         </is>
       </c>
       <c r="I717" t="n">
-        <v>1292.51</v>
+        <v>995.54</v>
       </c>
     </row>
     <row r="718">
@@ -31308,7 +31308,7 @@
         </is>
       </c>
       <c r="I718" t="n">
-        <v>574.76</v>
+        <v>443.42</v>
       </c>
     </row>
     <row r="719">
@@ -31351,7 +31351,7 @@
         </is>
       </c>
       <c r="I719" t="n">
-        <v>1640.5</v>
+        <v>1263.22</v>
       </c>
     </row>
     <row r="720">
@@ -31394,7 +31394,7 @@
         </is>
       </c>
       <c r="I720" t="n">
-        <v>962.42</v>
+        <v>741.62</v>
       </c>
     </row>
     <row r="721">
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="I721" t="n">
-        <v>1056.13</v>
+        <v>813.71</v>
       </c>
     </row>
     <row r="722">
@@ -31480,7 +31480,7 @@
         </is>
       </c>
       <c r="I722" t="n">
-        <v>516.88</v>
+        <v>398.9</v>
       </c>
     </row>
     <row r="723">
@@ -31523,7 +31523,7 @@
         </is>
       </c>
       <c r="I723" t="n">
-        <v>986.3200000000001</v>
+        <v>760.01</v>
       </c>
     </row>
     <row r="724">
@@ -31566,7 +31566,7 @@
         </is>
       </c>
       <c r="I724" t="n">
-        <v>1198.05</v>
+        <v>922.88</v>
       </c>
     </row>
     <row r="725">
@@ -31609,7 +31609,7 @@
         </is>
       </c>
       <c r="I725" t="n">
-        <v>959.14</v>
+        <v>739.1</v>
       </c>
     </row>
     <row r="726">
@@ -31652,7 +31652,7 @@
         </is>
       </c>
       <c r="I726" t="n">
-        <v>261.33</v>
+        <v>202.32</v>
       </c>
     </row>
     <row r="727">
@@ -31695,7 +31695,7 @@
         </is>
       </c>
       <c r="I727" t="n">
-        <v>305.25</v>
+        <v>236.11</v>
       </c>
     </row>
     <row r="728">
@@ -31738,7 +31738,7 @@
         </is>
       </c>
       <c r="I728" t="n">
-        <v>1353.48</v>
+        <v>1042.44</v>
       </c>
     </row>
     <row r="729">
@@ -31781,7 +31781,7 @@
         </is>
       </c>
       <c r="I729" t="n">
-        <v>782.04</v>
+        <v>602.87</v>
       </c>
     </row>
     <row r="730">
@@ -31824,7 +31824,7 @@
         </is>
       </c>
       <c r="I730" t="n">
-        <v>802.85</v>
+        <v>618.88</v>
       </c>
     </row>
     <row r="731">
@@ -31867,7 +31867,7 @@
         </is>
       </c>
       <c r="I731" t="n">
-        <v>802.85</v>
+        <v>618.88</v>
       </c>
     </row>
     <row r="732">
@@ -31910,7 +31910,7 @@
         </is>
       </c>
       <c r="I732" t="n">
-        <v>658.84</v>
+        <v>508.1</v>
       </c>
     </row>
     <row r="733">
@@ -31953,7 +31953,7 @@
         </is>
       </c>
       <c r="I733" t="n">
-        <v>772.36</v>
+        <v>595.42</v>
       </c>
     </row>
     <row r="734">
@@ -31996,7 +31996,7 @@
         </is>
       </c>
       <c r="I734" t="n">
-        <v>618.64</v>
+        <v>477.18</v>
       </c>
     </row>
     <row r="735">
@@ -32039,7 +32039,7 @@
         </is>
       </c>
       <c r="I735" t="n">
-        <v>437.64</v>
+        <v>337.95</v>
       </c>
     </row>
     <row r="736">
@@ -32082,7 +32082,7 @@
         </is>
       </c>
       <c r="I736" t="n">
-        <v>1297.71</v>
+        <v>999.54</v>
       </c>
     </row>
     <row r="737">
@@ -32125,7 +32125,7 @@
         </is>
       </c>
       <c r="I737" t="n">
-        <v>1376.67</v>
+        <v>1060.28</v>
       </c>
     </row>
     <row r="738">
@@ -32168,7 +32168,7 @@
         </is>
       </c>
       <c r="I738" t="n">
-        <v>651.34</v>
+        <v>502.33</v>
       </c>
     </row>
     <row r="739">
@@ -32211,7 +32211,7 @@
         </is>
       </c>
       <c r="I739" t="n">
-        <v>425.15</v>
+        <v>328.34</v>
       </c>
     </row>
     <row r="740">
@@ -32254,7 +32254,7 @@
         </is>
       </c>
       <c r="I740" t="n">
-        <v>678.76</v>
+        <v>523.42</v>
       </c>
     </row>
     <row r="741">
@@ -32297,7 +32297,7 @@
         </is>
       </c>
       <c r="I741" t="n">
-        <v>504.31</v>
+        <v>389.23</v>
       </c>
     </row>
     <row r="742">
@@ -32340,7 +32340,7 @@
         </is>
       </c>
       <c r="I742" t="n">
-        <v>625.26</v>
+        <v>482.27</v>
       </c>
     </row>
     <row r="743">
@@ -32383,7 +32383,7 @@
         </is>
       </c>
       <c r="I743" t="n">
-        <v>403.01</v>
+        <v>311.31</v>
       </c>
     </row>
     <row r="744">
@@ -32426,7 +32426,7 @@
         </is>
       </c>
       <c r="I744" t="n">
-        <v>501.59</v>
+        <v>387.14</v>
       </c>
     </row>
     <row r="745">
@@ -32469,7 +32469,7 @@
         </is>
       </c>
       <c r="I745" t="n">
-        <v>813.36</v>
+        <v>626.96</v>
       </c>
     </row>
     <row r="746">
@@ -32512,7 +32512,7 @@
         </is>
       </c>
       <c r="I746" t="n">
-        <v>1300.64</v>
+        <v>1001.79</v>
       </c>
     </row>
     <row r="747">
@@ -32555,7 +32555,7 @@
         </is>
       </c>
       <c r="I747" t="n">
-        <v>865.1</v>
+        <v>666.76</v>
       </c>
     </row>
     <row r="748">
@@ -32598,7 +32598,7 @@
         </is>
       </c>
       <c r="I748" t="n">
-        <v>1036.82</v>
+        <v>798.85</v>
       </c>
     </row>
     <row r="749">
@@ -32641,7 +32641,7 @@
         </is>
       </c>
       <c r="I749" t="n">
-        <v>1743.66</v>
+        <v>1342.58</v>
       </c>
     </row>
     <row r="750">
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="I750" t="n">
-        <v>756.91</v>
+        <v>583.54</v>
       </c>
     </row>
     <row r="751">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="I751" t="n">
-        <v>5503.93</v>
+        <v>4235.09</v>
       </c>
     </row>
     <row r="752">
@@ -32770,7 +32770,7 @@
         </is>
       </c>
       <c r="I752" t="n">
-        <v>1226.25</v>
+        <v>944.5700000000001</v>
       </c>
     </row>
     <row r="753">
@@ -32813,7 +32813,7 @@
         </is>
       </c>
       <c r="I753" t="n">
-        <v>898.9400000000001</v>
+        <v>692.79</v>
       </c>
     </row>
     <row r="754">
@@ -32856,7 +32856,7 @@
         </is>
       </c>
       <c r="I754" t="n">
-        <v>898.9400000000001</v>
+        <v>692.79</v>
       </c>
     </row>
     <row r="755">
@@ -32899,7 +32899,7 @@
         </is>
       </c>
       <c r="I755" t="n">
-        <v>2239.18</v>
+        <v>1723.75</v>
       </c>
     </row>
     <row r="756">
@@ -32942,7 +32942,7 @@
         </is>
       </c>
       <c r="I756" t="n">
-        <v>1818.47</v>
+        <v>1400.12</v>
       </c>
     </row>
     <row r="757">
@@ -32985,7 +32985,7 @@
         </is>
       </c>
       <c r="I757" t="n">
-        <v>922.54</v>
+        <v>710.95</v>
       </c>
     </row>
     <row r="758">
@@ -33028,7 +33028,7 @@
         </is>
       </c>
       <c r="I758" t="n">
-        <v>456.3</v>
+        <v>352.3</v>
       </c>
     </row>
     <row r="759">
@@ -33071,7 +33071,7 @@
         </is>
       </c>
       <c r="I759" t="n">
-        <v>1957.89</v>
+        <v>1507.37</v>
       </c>
     </row>
     <row r="760">
@@ -33114,7 +33114,7 @@
         </is>
       </c>
       <c r="I760" t="n">
-        <v>1226.25</v>
+        <v>944.5700000000001</v>
       </c>
     </row>
     <row r="761">
@@ -33157,7 +33157,7 @@
         </is>
       </c>
       <c r="I761" t="n">
-        <v>1714.77</v>
+        <v>1320.35</v>
       </c>
     </row>
     <row r="762">
@@ -33200,7 +33200,7 @@
         </is>
       </c>
       <c r="I762" t="n">
-        <v>1134.95</v>
+        <v>874.34</v>
       </c>
     </row>
     <row r="763">
@@ -33243,7 +33243,7 @@
         </is>
       </c>
       <c r="I763" t="n">
-        <v>1272.51</v>
+        <v>980.15</v>
       </c>
     </row>
     <row r="764">
@@ -33286,7 +33286,7 @@
         </is>
       </c>
       <c r="I764" t="n">
-        <v>618.4400000000001</v>
+        <v>477.02</v>
       </c>
     </row>
     <row r="765">
@@ -33329,7 +33329,7 @@
         </is>
       </c>
       <c r="I765" t="n">
-        <v>781.29</v>
+        <v>602.29</v>
       </c>
     </row>
     <row r="766">
@@ -33372,7 +33372,7 @@
         </is>
       </c>
       <c r="I766" t="n">
-        <v>378.2</v>
+        <v>292.22</v>
       </c>
     </row>
     <row r="767">
@@ -33415,7 +33415,7 @@
         </is>
       </c>
       <c r="I767" t="n">
-        <v>591.37</v>
+        <v>456.2</v>
       </c>
     </row>
     <row r="768">
@@ -33458,7 +33458,7 @@
         </is>
       </c>
       <c r="I768" t="n">
-        <v>144.3</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="769">
@@ -33501,7 +33501,7 @@
         </is>
       </c>
       <c r="I769" t="n">
-        <v>514.36</v>
+        <v>396.96</v>
       </c>
     </row>
     <row r="770">
@@ -33544,7 +33544,7 @@
         </is>
       </c>
       <c r="I770" t="n">
-        <v>910.14</v>
+        <v>701.41</v>
       </c>
     </row>
     <row r="771">
@@ -33587,7 +33587,7 @@
         </is>
       </c>
       <c r="I771" t="n">
-        <v>862.21</v>
+        <v>664.54</v>
       </c>
     </row>
     <row r="772">
@@ -33630,7 +33630,7 @@
         </is>
       </c>
       <c r="I772" t="n">
-        <v>1021.28</v>
+        <v>786.9</v>
       </c>
     </row>
     <row r="773">
@@ -33673,7 +33673,7 @@
         </is>
       </c>
       <c r="I773" t="n">
-        <v>2176.64</v>
+        <v>1675.64</v>
       </c>
     </row>
     <row r="774">
@@ -33716,7 +33716,7 @@
         </is>
       </c>
       <c r="I774" t="n">
-        <v>1330.37</v>
+        <v>1024.66</v>
       </c>
     </row>
     <row r="775">
@@ -33759,7 +33759,7 @@
         </is>
       </c>
       <c r="I775" t="n">
-        <v>966.89</v>
+        <v>745.0599999999999</v>
       </c>
     </row>
     <row r="776">
@@ -33802,7 +33802,7 @@
         </is>
       </c>
       <c r="I776" t="n">
-        <v>1740.53</v>
+        <v>1340.17</v>
       </c>
     </row>
     <row r="777">
@@ -33845,7 +33845,7 @@
         </is>
       </c>
       <c r="I777" t="n">
-        <v>262.24</v>
+        <v>203.02</v>
       </c>
     </row>
     <row r="778">
@@ -33888,7 +33888,7 @@
         </is>
       </c>
       <c r="I778" t="n">
-        <v>1711.19</v>
+        <v>1317.6</v>
       </c>
     </row>
     <row r="779">
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="I779" t="n">
-        <v>977.65</v>
+        <v>753.34</v>
       </c>
     </row>
     <row r="780">
@@ -33974,7 +33974,7 @@
         </is>
       </c>
       <c r="I780" t="n">
-        <v>1450.68</v>
+        <v>1117.21</v>
       </c>
     </row>
     <row r="781">
@@ -34017,7 +34017,7 @@
         </is>
       </c>
       <c r="I781" t="n">
-        <v>1900.24</v>
+        <v>1463.02</v>
       </c>
     </row>
     <row r="782">
@@ -34060,7 +34060,7 @@
         </is>
       </c>
       <c r="I782" t="n">
-        <v>663.3099999999999</v>
+        <v>511.54</v>
       </c>
     </row>
     <row r="783">
@@ -34103,7 +34103,7 @@
         </is>
       </c>
       <c r="I783" t="n">
-        <v>434.2</v>
+        <v>335.3</v>
       </c>
     </row>
     <row r="784">
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="I784" t="n">
-        <v>388.14</v>
+        <v>299.87</v>
       </c>
     </row>
     <row r="785">
@@ -34189,7 +34189,7 @@
         </is>
       </c>
       <c r="I785" t="n">
-        <v>967.9</v>
+        <v>745.84</v>
       </c>
     </row>
     <row r="786">
@@ -34232,7 +34232,7 @@
         </is>
       </c>
       <c r="I786" t="n">
-        <v>977.05</v>
+        <v>752.88</v>
       </c>
     </row>
     <row r="787">
@@ -34275,7 +34275,7 @@
         </is>
       </c>
       <c r="I787" t="n">
-        <v>208.88</v>
+        <v>161.98</v>
       </c>
     </row>
     <row r="788">
@@ -34318,7 +34318,7 @@
         </is>
       </c>
       <c r="I788" t="n">
-        <v>343.81</v>
+        <v>265.77</v>
       </c>
     </row>
     <row r="789">
@@ -34361,7 +34361,7 @@
         </is>
       </c>
       <c r="I789" t="n">
-        <v>1664.57</v>
+        <v>1281.74</v>
       </c>
     </row>
     <row r="790">
@@ -34404,7 +34404,7 @@
         </is>
       </c>
       <c r="I790" t="n">
-        <v>1876.45</v>
+        <v>1444.72</v>
       </c>
     </row>
     <row r="791">
@@ -34447,7 +34447,7 @@
         </is>
       </c>
       <c r="I791" t="n">
-        <v>629.95</v>
+        <v>485.88</v>
       </c>
     </row>
     <row r="792">
@@ -34490,7 +34490,7 @@
         </is>
       </c>
       <c r="I792" t="n">
-        <v>330.2</v>
+        <v>255.3</v>
       </c>
     </row>
     <row r="793">
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="I793" t="n">
-        <v>1834.59</v>
+        <v>1412.52</v>
       </c>
     </row>
     <row r="794">
@@ -34576,7 +34576,7 @@
         </is>
       </c>
       <c r="I794" t="n">
-        <v>1170.49</v>
+        <v>901.6799999999999</v>
       </c>
     </row>
     <row r="795">
@@ -34619,7 +34619,7 @@
         </is>
       </c>
       <c r="I795" t="n">
-        <v>825.51</v>
+        <v>636.3099999999999</v>
       </c>
     </row>
     <row r="796">
@@ -34662,7 +34662,7 @@
         </is>
       </c>
       <c r="I796" t="n">
-        <v>1450.21</v>
+        <v>1116.85</v>
       </c>
     </row>
     <row r="797">
@@ -34705,7 +34705,7 @@
         </is>
       </c>
       <c r="I797" t="n">
-        <v>1317.21</v>
+        <v>1014.54</v>
       </c>
     </row>
     <row r="798">
@@ -34748,7 +34748,7 @@
         </is>
       </c>
       <c r="I798" t="n">
-        <v>1036.35</v>
+        <v>798.49</v>
       </c>
     </row>
     <row r="799">
@@ -34791,7 +34791,7 @@
         </is>
       </c>
       <c r="I799" t="n">
-        <v>1209.61</v>
+        <v>931.77</v>
       </c>
     </row>
     <row r="800">
@@ -34834,7 +34834,7 @@
         </is>
       </c>
       <c r="I800" t="n">
-        <v>2528.03</v>
+        <v>1945.94</v>
       </c>
     </row>
     <row r="801">
@@ -34877,7 +34877,7 @@
         </is>
       </c>
       <c r="I801" t="n">
-        <v>1404.9</v>
+        <v>1081.99</v>
       </c>
     </row>
     <row r="802">
@@ -34920,7 +34920,7 @@
         </is>
       </c>
       <c r="I802" t="n">
-        <v>574.12</v>
+        <v>442.93</v>
       </c>
     </row>
     <row r="803">
@@ -34963,7 +34963,7 @@
         </is>
       </c>
       <c r="I803" t="n">
-        <v>1428.61</v>
+        <v>1100.23</v>
       </c>
     </row>
     <row r="804">
@@ -35006,7 +35006,7 @@
         </is>
       </c>
       <c r="I804" t="n">
-        <v>732.15</v>
+        <v>564.49</v>
       </c>
     </row>
     <row r="805">
@@ -35049,7 +35049,7 @@
         </is>
       </c>
       <c r="I805" t="n">
-        <v>784.42</v>
+        <v>604.7</v>
       </c>
     </row>
     <row r="806">
@@ -35092,7 +35092,7 @@
         </is>
       </c>
       <c r="I806" t="n">
-        <v>1213.21</v>
+        <v>934.54</v>
       </c>
     </row>
     <row r="807">
@@ -35135,7 +35135,7 @@
         </is>
       </c>
       <c r="I807" t="n">
-        <v>615.84</v>
+        <v>475.02</v>
       </c>
     </row>
     <row r="808">
@@ -35178,7 +35178,7 @@
         </is>
       </c>
       <c r="I808" t="n">
-        <v>784.42</v>
+        <v>604.7</v>
       </c>
     </row>
     <row r="809">
@@ -35221,7 +35221,7 @@
         </is>
       </c>
       <c r="I809" t="n">
-        <v>1437.27</v>
+        <v>1106.89</v>
       </c>
     </row>
     <row r="810">
@@ -35264,7 +35264,7 @@
         </is>
       </c>
       <c r="I810" t="n">
-        <v>2440.36</v>
+        <v>1878.5</v>
       </c>
     </row>
     <row r="811">
@@ -35307,7 +35307,7 @@
         </is>
       </c>
       <c r="I811" t="n">
-        <v>1151.24</v>
+        <v>886.87</v>
       </c>
     </row>
     <row r="812">
@@ -35350,7 +35350,7 @@
         </is>
       </c>
       <c r="I812" t="n">
-        <v>1680.35</v>
+        <v>1293.88</v>
       </c>
     </row>
     <row r="813">
@@ -35393,7 +35393,7 @@
         </is>
       </c>
       <c r="I813" t="n">
-        <v>373.29</v>
+        <v>288.45</v>
       </c>
     </row>
     <row r="814">
@@ -35436,7 +35436,7 @@
         </is>
       </c>
       <c r="I814" t="n">
-        <v>1060.36</v>
+        <v>816.96</v>
       </c>
     </row>
     <row r="815">
@@ -35479,7 +35479,7 @@
         </is>
       </c>
       <c r="I815" t="n">
-        <v>362.91</v>
+        <v>280.46</v>
       </c>
     </row>
     <row r="816">
@@ -35522,7 +35522,7 @@
         </is>
       </c>
       <c r="I816" t="n">
-        <v>2041.83</v>
+        <v>1571.94</v>
       </c>
     </row>
     <row r="817">
@@ -35565,7 +35565,7 @@
         </is>
       </c>
       <c r="I817" t="n">
-        <v>515.62</v>
+        <v>397.93</v>
       </c>
     </row>
     <row r="818">
@@ -35608,7 +35608,7 @@
         </is>
       </c>
       <c r="I818" t="n">
-        <v>689.98</v>
+        <v>532.05</v>
       </c>
     </row>
     <row r="819">
@@ -35651,7 +35651,7 @@
         </is>
       </c>
       <c r="I819" t="n">
-        <v>1159.12</v>
+        <v>892.9299999999999</v>
       </c>
     </row>
     <row r="820">
@@ -35694,7 +35694,7 @@
         </is>
       </c>
       <c r="I820" t="n">
-        <v>815.4400000000001</v>
+        <v>628.5599999999999</v>
       </c>
     </row>
     <row r="821">
@@ -35737,7 +35737,7 @@
         </is>
       </c>
       <c r="I821" t="n">
-        <v>1675.49</v>
+        <v>1290.14</v>
       </c>
     </row>
     <row r="822">
@@ -35780,7 +35780,7 @@
         </is>
       </c>
       <c r="I822" t="n">
-        <v>1668.39</v>
+        <v>1284.68</v>
       </c>
     </row>
     <row r="823">
@@ -35823,7 +35823,7 @@
         </is>
       </c>
       <c r="I823" t="n">
-        <v>613.22</v>
+        <v>473.01</v>
       </c>
     </row>
     <row r="824">
@@ -35866,7 +35866,7 @@
         </is>
       </c>
       <c r="I824" t="n">
-        <v>1409.95</v>
+        <v>1085.88</v>
       </c>
     </row>
     <row r="825">
@@ -35909,7 +35909,7 @@
         </is>
       </c>
       <c r="I825" t="n">
-        <v>515.91</v>
+        <v>398.15</v>
       </c>
     </row>
     <row r="826">
@@ -35952,7 +35952,7 @@
         </is>
       </c>
       <c r="I826" t="n">
-        <v>633.67</v>
+        <v>488.74</v>
       </c>
     </row>
     <row r="827">
@@ -35995,7 +35995,7 @@
         </is>
       </c>
       <c r="I827" t="n">
-        <v>362.82</v>
+        <v>280.39</v>
       </c>
     </row>
     <row r="828">
@@ -36038,7 +36038,7 @@
         </is>
       </c>
       <c r="I828" t="n">
-        <v>523.17</v>
+        <v>403.74</v>
       </c>
     </row>
     <row r="829">
@@ -36081,7 +36081,7 @@
         </is>
       </c>
       <c r="I829" t="n">
-        <v>776.41</v>
+        <v>598.54</v>
       </c>
     </row>
     <row r="830">
@@ -36124,7 +36124,7 @@
         </is>
       </c>
       <c r="I830" t="n">
-        <v>210.03</v>
+        <v>162.86</v>
       </c>
     </row>
     <row r="831">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="I831" t="n">
-        <v>499.25</v>
+        <v>385.34</v>
       </c>
     </row>
     <row r="832">
@@ -36210,7 +36210,7 @@
         </is>
       </c>
       <c r="I832" t="n">
-        <v>222.79</v>
+        <v>172.68</v>
       </c>
     </row>
     <row r="833">
@@ -36253,7 +36253,7 @@
         </is>
       </c>
       <c r="I833" t="n">
-        <v>1280.81</v>
+        <v>986.54</v>
       </c>
     </row>
     <row r="834">
@@ -36296,7 +36296,7 @@
         </is>
       </c>
       <c r="I834" t="n">
-        <v>1127.41</v>
+        <v>868.54</v>
       </c>
     </row>
     <row r="835">
@@ -36339,7 +36339,7 @@
         </is>
       </c>
       <c r="I835" t="n">
-        <v>1576.12</v>
+        <v>1213.7</v>
       </c>
     </row>
     <row r="836">
@@ -36382,7 +36382,7 @@
         </is>
       </c>
       <c r="I836" t="n">
-        <v>1417.03</v>
+        <v>1091.32</v>
       </c>
     </row>
     <row r="837">
@@ -36425,7 +36425,7 @@
         </is>
       </c>
       <c r="I837" t="n">
-        <v>1519.32</v>
+        <v>1170.01</v>
       </c>
     </row>
     <row r="838">
@@ -36468,7 +36468,7 @@
         </is>
       </c>
       <c r="I838" t="n">
-        <v>1681.39</v>
+        <v>1294.68</v>
       </c>
     </row>
     <row r="839">
@@ -36511,7 +36511,7 @@
         </is>
       </c>
       <c r="I839" t="n">
-        <v>598.88</v>
+        <v>461.98</v>
       </c>
     </row>
     <row r="840">
@@ -36554,7 +36554,7 @@
         </is>
       </c>
       <c r="I840" t="n">
-        <v>916.3099999999999</v>
+        <v>706.15</v>
       </c>
     </row>
     <row r="841">
@@ -36597,7 +36597,7 @@
         </is>
       </c>
       <c r="I841" t="n">
-        <v>160.97</v>
+        <v>125.12</v>
       </c>
     </row>
     <row r="842">
@@ -36640,7 +36640,7 @@
         </is>
       </c>
       <c r="I842" t="n">
-        <v>709.8</v>
+        <v>547.3</v>
       </c>
     </row>
     <row r="843">
@@ -36683,7 +36683,7 @@
         </is>
       </c>
       <c r="I843" t="n">
-        <v>435.16</v>
+        <v>336.04</v>
       </c>
     </row>
     <row r="844">
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="I844" t="n">
-        <v>1636.39</v>
+        <v>1260.06</v>
       </c>
     </row>
     <row r="845">
@@ -36769,7 +36769,7 @@
         </is>
       </c>
       <c r="I845" t="n">
-        <v>1899.55</v>
+        <v>1462.49</v>
       </c>
     </row>
     <row r="846">
@@ -36812,7 +36812,7 @@
         </is>
       </c>
       <c r="I846" t="n">
-        <v>6235.36</v>
+        <v>4797.73</v>
       </c>
     </row>
     <row r="847">
@@ -36855,7 +36855,7 @@
         </is>
       </c>
       <c r="I847" t="n">
-        <v>1097.65</v>
+        <v>845.65</v>
       </c>
     </row>
     <row r="848">
@@ -36898,7 +36898,7 @@
         </is>
       </c>
       <c r="I848" t="n">
-        <v>1041.92</v>
+        <v>802.78</v>
       </c>
     </row>
     <row r="849">
@@ -36941,7 +36941,7 @@
         </is>
       </c>
       <c r="I849" t="n">
-        <v>650.5599999999999</v>
+        <v>501.73</v>
       </c>
     </row>
     <row r="850">
@@ -36984,7 +36984,7 @@
         </is>
       </c>
       <c r="I850" t="n">
-        <v>887.37</v>
+        <v>683.89</v>
       </c>
     </row>
     <row r="851">
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="I851" t="n">
-        <v>1067.91</v>
+        <v>822.77</v>
       </c>
     </row>
     <row r="852">
@@ -37070,7 +37070,7 @@
         </is>
       </c>
       <c r="I852" t="n">
-        <v>1379.73</v>
+        <v>1062.63</v>
       </c>
     </row>
     <row r="853">
@@ -37113,7 +37113,7 @@
         </is>
       </c>
       <c r="I853" t="n">
-        <v>532.34</v>
+        <v>410.79</v>
       </c>
     </row>
     <row r="854">
@@ -37156,7 +37156,7 @@
         </is>
       </c>
       <c r="I854" t="n">
-        <v>809.6799999999999</v>
+        <v>624.13</v>
       </c>
     </row>
     <row r="855">
@@ -37199,7 +37199,7 @@
         </is>
       </c>
       <c r="I855" t="n">
-        <v>537.41</v>
+        <v>414.69</v>
       </c>
     </row>
     <row r="856">
@@ -37242,7 +37242,7 @@
         </is>
       </c>
       <c r="I856" t="n">
-        <v>598.61</v>
+        <v>461.77</v>
       </c>
     </row>
     <row r="857">
@@ -37285,7 +37285,7 @@
         </is>
       </c>
       <c r="I857" t="n">
-        <v>531.5</v>
+        <v>410.15</v>
       </c>
     </row>
     <row r="858">
@@ -37328,7 +37328,7 @@
         </is>
       </c>
       <c r="I858" t="n">
-        <v>2659.87</v>
+        <v>2047.35</v>
       </c>
     </row>
     <row r="859">
@@ -37371,7 +37371,7 @@
         </is>
       </c>
       <c r="I859" t="n">
-        <v>437.27</v>
+        <v>337.66</v>
       </c>
     </row>
     <row r="860">
@@ -37414,7 +37414,7 @@
         </is>
       </c>
       <c r="I860" t="n">
-        <v>218.92</v>
+        <v>169.7</v>
       </c>
     </row>
     <row r="861">
@@ -37457,7 +37457,7 @@
         </is>
       </c>
       <c r="I861" t="n">
-        <v>901.9400000000001</v>
+        <v>695.1</v>
       </c>
     </row>
     <row r="862">
@@ -37500,7 +37500,7 @@
         </is>
       </c>
       <c r="I862" t="n">
-        <v>682.33</v>
+        <v>526.17</v>
       </c>
     </row>
     <row r="863">
@@ -37543,7 +37543,7 @@
         </is>
       </c>
       <c r="I863" t="n">
-        <v>12012.94</v>
+        <v>9242.02</v>
       </c>
     </row>
     <row r="864">
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="I864" t="n">
-        <v>1343.15</v>
+        <v>1034.49</v>
       </c>
     </row>
     <row r="865">
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="I865" t="n">
-        <v>285.52</v>
+        <v>220.93</v>
       </c>
     </row>
     <row r="866">
@@ -37672,7 +37672,7 @@
         </is>
       </c>
       <c r="I866" t="n">
-        <v>358.55</v>
+        <v>277.11</v>
       </c>
     </row>
     <row r="867">
@@ -37715,7 +37715,7 @@
         </is>
       </c>
       <c r="I867" t="n">
-        <v>632.1</v>
+        <v>487.53</v>
       </c>
     </row>
     <row r="868">
@@ -37758,7 +37758,7 @@
         </is>
       </c>
       <c r="I868" t="n">
-        <v>777.46</v>
+        <v>599.35</v>
       </c>
     </row>
     <row r="869">
@@ -37801,7 +37801,7 @@
         </is>
       </c>
       <c r="I869" t="n">
-        <v>1234.88</v>
+        <v>951.21</v>
       </c>
     </row>
     <row r="870">
@@ -37844,7 +37844,7 @@
         </is>
       </c>
       <c r="I870" t="n">
-        <v>1986.93</v>
+        <v>1529.71</v>
       </c>
     </row>
     <row r="871">
@@ -37887,7 +37887,7 @@
         </is>
       </c>
       <c r="I871" t="n">
-        <v>1194.96</v>
+        <v>920.5</v>
       </c>
     </row>
     <row r="872">
@@ -37930,7 +37930,7 @@
         </is>
       </c>
       <c r="I872" t="n">
-        <v>453.23</v>
+        <v>349.94</v>
       </c>
     </row>
     <row r="873">
@@ -37973,7 +37973,7 @@
         </is>
       </c>
       <c r="I873" t="n">
-        <v>532.17</v>
+        <v>410.66</v>
       </c>
     </row>
     <row r="874">
@@ -38016,7 +38016,7 @@
         </is>
       </c>
       <c r="I874" t="n">
-        <v>1319.1</v>
+        <v>1015.99</v>
       </c>
     </row>
     <row r="875">
@@ -38059,7 +38059,7 @@
         </is>
       </c>
       <c r="I875" t="n">
-        <v>1368.64</v>
+        <v>1054.1</v>
       </c>
     </row>
     <row r="876">
@@ -38102,7 +38102,7 @@
         </is>
       </c>
       <c r="I876" t="n">
-        <v>823.33</v>
+        <v>634.63</v>
       </c>
     </row>
     <row r="877">
@@ -38145,7 +38145,7 @@
         </is>
       </c>
       <c r="I877" t="n">
-        <v>559.85</v>
+        <v>431.95</v>
       </c>
     </row>
     <row r="878">
@@ -38188,7 +38188,7 @@
         </is>
       </c>
       <c r="I878" t="n">
-        <v>655.86</v>
+        <v>505.81</v>
       </c>
     </row>
     <row r="879">
@@ -38231,7 +38231,7 @@
         </is>
       </c>
       <c r="I879" t="n">
-        <v>1427.76</v>
+        <v>1099.58</v>
       </c>
     </row>
     <row r="880">
@@ -38274,7 +38274,7 @@
         </is>
       </c>
       <c r="I880" t="n">
-        <v>1169.79</v>
+        <v>901.14</v>
       </c>
     </row>
     <row r="881">
@@ -38317,7 +38317,7 @@
         </is>
       </c>
       <c r="I881" t="n">
-        <v>847.85</v>
+        <v>653.49</v>
       </c>
     </row>
     <row r="882">
@@ -38360,7 +38360,7 @@
         </is>
       </c>
       <c r="I882" t="n">
-        <v>717.6</v>
+        <v>553.3</v>
       </c>
     </row>
     <row r="883">
@@ -38403,7 +38403,7 @@
         </is>
       </c>
       <c r="I883" t="n">
-        <v>400.54</v>
+        <v>309.41</v>
       </c>
     </row>
     <row r="884">
@@ -38446,7 +38446,7 @@
         </is>
       </c>
       <c r="I884" t="n">
-        <v>955.54</v>
+        <v>736.33</v>
       </c>
     </row>
     <row r="885">
@@ -38489,7 +38489,7 @@
         </is>
       </c>
       <c r="I885" t="n">
-        <v>5048.02</v>
+        <v>3884.39</v>
       </c>
     </row>
     <row r="886">
@@ -38532,7 +38532,7 @@
         </is>
       </c>
       <c r="I886" t="n">
-        <v>2165.79</v>
+        <v>1667.29</v>
       </c>
     </row>
     <row r="887">
@@ -38575,7 +38575,7 @@
         </is>
       </c>
       <c r="I887" t="n">
-        <v>977.6</v>
+        <v>753.3</v>
       </c>
     </row>
     <row r="888">
@@ -38618,7 +38618,7 @@
         </is>
       </c>
       <c r="I888" t="n">
-        <v>472.25</v>
+        <v>364.57</v>
       </c>
     </row>
     <row r="889">
@@ -38661,7 +38661,7 @@
         </is>
       </c>
       <c r="I889" t="n">
-        <v>463.42</v>
+        <v>357.78</v>
       </c>
     </row>
     <row r="890">
@@ -38704,7 +38704,7 @@
         </is>
       </c>
       <c r="I890" t="n">
-        <v>685.27</v>
+        <v>528.4299999999999</v>
       </c>
     </row>
     <row r="891">
@@ -38747,7 +38747,7 @@
         </is>
       </c>
       <c r="I891" t="n">
-        <v>576.08</v>
+        <v>444.44</v>
       </c>
     </row>
     <row r="892">
@@ -38790,7 +38790,7 @@
         </is>
       </c>
       <c r="I892" t="n">
-        <v>178.1</v>
+        <v>138.3</v>
       </c>
     </row>
     <row r="893">
@@ -38833,7 +38833,7 @@
         </is>
       </c>
       <c r="I893" t="n">
-        <v>417.87</v>
+        <v>322.74</v>
       </c>
     </row>
     <row r="894">
@@ -38876,7 +38876,7 @@
         </is>
       </c>
       <c r="I894" t="n">
-        <v>654.28</v>
+        <v>504.59</v>
       </c>
     </row>
     <row r="895">
@@ -38919,7 +38919,7 @@
         </is>
       </c>
       <c r="I895" t="n">
-        <v>1478.93</v>
+        <v>1138.94</v>
       </c>
     </row>
     <row r="896">
@@ -38962,7 +38962,7 @@
         </is>
       </c>
       <c r="I896" t="n">
-        <v>329</v>
+        <v>254.38</v>
       </c>
     </row>
     <row r="897">
@@ -39005,7 +39005,7 @@
         </is>
       </c>
       <c r="I897" t="n">
-        <v>955.02</v>
+        <v>735.9299999999999</v>
       </c>
     </row>
     <row r="898">
@@ -39048,7 +39048,7 @@
         </is>
       </c>
       <c r="I898" t="n">
-        <v>848.13</v>
+        <v>653.71</v>
       </c>
     </row>
     <row r="899">
@@ -39091,7 +39091,7 @@
         </is>
       </c>
       <c r="I899" t="n">
-        <v>748.25</v>
+        <v>576.88</v>
       </c>
     </row>
     <row r="900">
@@ -39134,7 +39134,7 @@
         </is>
       </c>
       <c r="I900" t="n">
-        <v>1148.55</v>
+        <v>884.8</v>
       </c>
     </row>
     <row r="901">
@@ -39177,7 +39177,7 @@
         </is>
       </c>
       <c r="I901" t="n">
-        <v>1365</v>
+        <v>1051.3</v>
       </c>
     </row>
     <row r="902">
@@ -39220,7 +39220,7 @@
         </is>
       </c>
       <c r="I902" t="n">
-        <v>549.4299999999999</v>
+        <v>423.94</v>
       </c>
     </row>
     <row r="903">
@@ -39263,7 +39263,7 @@
         </is>
       </c>
       <c r="I903" t="n">
-        <v>1704.52</v>
+        <v>1312.47</v>
       </c>
     </row>
     <row r="904">
@@ -39306,7 +39306,7 @@
         </is>
       </c>
       <c r="I904" t="n">
-        <v>807.8099999999999</v>
+        <v>622.6900000000001</v>
       </c>
     </row>
     <row r="905">
@@ -39349,7 +39349,7 @@
         </is>
       </c>
       <c r="I905" t="n">
-        <v>1182.79</v>
+        <v>911.14</v>
       </c>
     </row>
     <row r="906">
@@ -39392,7 +39392,7 @@
         </is>
       </c>
       <c r="I906" t="n">
-        <v>237.28</v>
+        <v>183.82</v>
       </c>
     </row>
     <row r="907">
@@ -39435,7 +39435,7 @@
         </is>
       </c>
       <c r="I907" t="n">
-        <v>2720.15</v>
+        <v>2093.72</v>
       </c>
     </row>
     <row r="908">
@@ -39478,7 +39478,7 @@
         </is>
       </c>
       <c r="I908" t="n">
-        <v>741.92</v>
+        <v>572.01</v>
       </c>
     </row>
     <row r="909">
@@ -39521,7 +39521,7 @@
         </is>
       </c>
       <c r="I909" t="n">
-        <v>439.99</v>
+        <v>339.75</v>
       </c>
     </row>
     <row r="910">
@@ -39564,7 +39564,7 @@
         </is>
       </c>
       <c r="I910" t="n">
-        <v>1471.05</v>
+        <v>1132.88</v>
       </c>
     </row>
     <row r="911">
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="I911" t="n">
-        <v>1654.95</v>
+        <v>1274.34</v>
       </c>
     </row>
     <row r="912">
@@ -39650,7 +39650,7 @@
         </is>
       </c>
       <c r="I912" t="n">
-        <v>483.72</v>
+        <v>373.39</v>
       </c>
     </row>
     <row r="913">
@@ -39693,7 +39693,7 @@
         </is>
       </c>
       <c r="I913" t="n">
-        <v>278.78</v>
+        <v>215.75</v>
       </c>
     </row>
     <row r="914">
@@ -39736,7 +39736,7 @@
         </is>
       </c>
       <c r="I914" t="n">
-        <v>1058.38</v>
+        <v>815.4400000000001</v>
       </c>
     </row>
     <row r="915">
@@ -39779,7 +39779,7 @@
         </is>
       </c>
       <c r="I915" t="n">
-        <v>221.46</v>
+        <v>171.65</v>
       </c>
     </row>
     <row r="916">
@@ -39822,7 +39822,7 @@
         </is>
       </c>
       <c r="I916" t="n">
-        <v>470.05</v>
+        <v>362.88</v>
       </c>
     </row>
     <row r="917">
@@ -39865,7 +39865,7 @@
         </is>
       </c>
       <c r="I917" t="n">
-        <v>628.76</v>
+        <v>484.96</v>
       </c>
     </row>
     <row r="918">
@@ -39908,7 +39908,7 @@
         </is>
       </c>
       <c r="I918" t="n">
-        <v>410.61</v>
+        <v>317.15</v>
       </c>
     </row>
     <row r="919">
@@ -39951,7 +39951,7 @@
         </is>
       </c>
       <c r="I919" t="n">
-        <v>249.24</v>
+        <v>193.02</v>
       </c>
     </row>
     <row r="920">
@@ -39994,7 +39994,7 @@
         </is>
       </c>
       <c r="I920" t="n">
-        <v>971.4400000000001</v>
+        <v>748.5599999999999</v>
       </c>
     </row>
     <row r="921">
@@ -40037,7 +40037,7 @@
         </is>
       </c>
       <c r="I921" t="n">
-        <v>865.9</v>
+        <v>667.38</v>
       </c>
     </row>
     <row r="922">
@@ -40080,7 +40080,7 @@
         </is>
       </c>
       <c r="I922" t="n">
-        <v>77.09999999999999</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="923">
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="I923" t="n">
-        <v>615.16</v>
+        <v>474.5</v>
       </c>
     </row>
     <row r="924">
@@ -40166,7 +40166,7 @@
         </is>
       </c>
       <c r="I924" t="n">
-        <v>419.06</v>
+        <v>323.65</v>
       </c>
     </row>
     <row r="925">
@@ -40209,7 +40209,7 @@
         </is>
       </c>
       <c r="I925" t="n">
-        <v>1141.04</v>
+        <v>879.02</v>
       </c>
     </row>
     <row r="926">
@@ -40252,7 +40252,7 @@
         </is>
       </c>
       <c r="I926" t="n">
-        <v>1045.9</v>
+        <v>805.84</v>
       </c>
     </row>
     <row r="927">
@@ -40295,7 +40295,7 @@
         </is>
       </c>
       <c r="I927" t="n">
-        <v>395.93</v>
+        <v>305.86</v>
       </c>
     </row>
     <row r="928">
@@ -40338,7 +40338,7 @@
         </is>
       </c>
       <c r="I928" t="n">
-        <v>3135.35</v>
+        <v>2413.11</v>
       </c>
     </row>
     <row r="929">
@@ -40381,7 +40381,7 @@
         </is>
       </c>
       <c r="I929" t="n">
-        <v>315.11</v>
+        <v>243.69</v>
       </c>
     </row>
     <row r="930">
@@ -40424,7 +40424,7 @@
         </is>
       </c>
       <c r="I930" t="n">
-        <v>364.52</v>
+        <v>281.7</v>
       </c>
     </row>
     <row r="931">
@@ -40467,7 +40467,7 @@
         </is>
       </c>
       <c r="I931" t="n">
-        <v>407.65</v>
+        <v>314.88</v>
       </c>
     </row>
     <row r="932">
@@ -40510,7 +40510,7 @@
         </is>
       </c>
       <c r="I932" t="n">
-        <v>483.03</v>
+        <v>372.86</v>
       </c>
     </row>
     <row r="933">
@@ -40553,7 +40553,7 @@
         </is>
       </c>
       <c r="I933" t="n">
-        <v>645.74</v>
+        <v>498.02</v>
       </c>
     </row>
     <row r="934">
@@ -40596,7 +40596,7 @@
         </is>
       </c>
       <c r="I934" t="n">
-        <v>1540.33</v>
+        <v>1186.17</v>
       </c>
     </row>
     <row r="935">
@@ -40639,7 +40639,7 @@
         </is>
       </c>
       <c r="I935" t="n">
-        <v>593.3200000000001</v>
+        <v>457.7</v>
       </c>
     </row>
     <row r="936">
@@ -40682,7 +40682,7 @@
         </is>
       </c>
       <c r="I936" t="n">
-        <v>1952.86</v>
+        <v>1503.5</v>
       </c>
     </row>
     <row r="937">
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="I937" t="n">
-        <v>2893.29</v>
+        <v>2226.91</v>
       </c>
     </row>
     <row r="938">
@@ -40768,7 +40768,7 @@
         </is>
       </c>
       <c r="I938" t="n">
-        <v>484.83</v>
+        <v>374.25</v>
       </c>
     </row>
     <row r="939">
@@ -40811,7 +40811,7 @@
         </is>
       </c>
       <c r="I939" t="n">
-        <v>432.91</v>
+        <v>334.31</v>
       </c>
     </row>
     <row r="940">
@@ -40854,7 +40854,7 @@
         </is>
       </c>
       <c r="I940" t="n">
-        <v>745.65</v>
+        <v>574.88</v>
       </c>
     </row>
     <row r="941">
@@ -40897,7 +40897,7 @@
         </is>
       </c>
       <c r="I941" t="n">
-        <v>491.84</v>
+        <v>379.64</v>
       </c>
     </row>
     <row r="942">
@@ -40940,7 +40940,7 @@
         </is>
       </c>
       <c r="I942" t="n">
-        <v>529.03</v>
+        <v>408.25</v>
       </c>
     </row>
     <row r="943">
@@ -40983,7 +40983,7 @@
         </is>
       </c>
       <c r="I943" t="n">
-        <v>655.86</v>
+        <v>505.81</v>
       </c>
     </row>
     <row r="944">
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="I944" t="n">
-        <v>282.28</v>
+        <v>218.44</v>
       </c>
     </row>
     <row r="945">
@@ -41069,7 +41069,7 @@
         </is>
       </c>
       <c r="I945" t="n">
-        <v>567.29</v>
+        <v>437.68</v>
       </c>
     </row>
     <row r="946">
@@ -41112,7 +41112,7 @@
         </is>
       </c>
       <c r="I946" t="n">
-        <v>224.22</v>
+        <v>173.78</v>
       </c>
     </row>
     <row r="947">
@@ -41155,7 +41155,7 @@
         </is>
       </c>
       <c r="I947" t="n">
-        <v>1043.9</v>
+        <v>804.3</v>
       </c>
     </row>
     <row r="948">
@@ -41198,7 +41198,7 @@
         </is>
       </c>
       <c r="I948" t="n">
-        <v>1935.9</v>
+        <v>1490.45</v>
       </c>
     </row>
     <row r="949">
@@ -41241,7 +41241,7 @@
         </is>
       </c>
       <c r="I949" t="n">
-        <v>522.16</v>
+        <v>402.96</v>
       </c>
     </row>
     <row r="950">
@@ -41284,7 +41284,7 @@
         </is>
       </c>
       <c r="I950" t="n">
-        <v>1133.3</v>
+        <v>873.0700000000001</v>
       </c>
     </row>
     <row r="951">
@@ -41327,7 +41327,7 @@
         </is>
       </c>
       <c r="I951" t="n">
-        <v>569.9299999999999</v>
+        <v>439.71</v>
       </c>
     </row>
     <row r="952">
@@ -41370,7 +41370,7 @@
         </is>
       </c>
       <c r="I952" t="n">
-        <v>470.55</v>
+        <v>363.26</v>
       </c>
     </row>
     <row r="953">
@@ -41413,7 +41413,7 @@
         </is>
       </c>
       <c r="I953" t="n">
-        <v>6545.47</v>
+        <v>5036.28</v>
       </c>
     </row>
     <row r="954">
@@ -41456,7 +41456,7 @@
         </is>
       </c>
       <c r="I954" t="n">
-        <v>8325.040000000001</v>
+        <v>6405.18</v>
       </c>
     </row>
     <row r="955">
@@ -41499,7 +41499,7 @@
         </is>
       </c>
       <c r="I955" t="n">
-        <v>848.85</v>
+        <v>654.26</v>
       </c>
     </row>
     <row r="956">
@@ -41542,7 +41542,7 @@
         </is>
       </c>
       <c r="I956" t="n">
-        <v>3411.21</v>
+        <v>2625.31</v>
       </c>
     </row>
     <row r="957">
@@ -41585,7 +41585,7 @@
         </is>
       </c>
       <c r="I957" t="n">
-        <v>271.15</v>
+        <v>209.88</v>
       </c>
     </row>
     <row r="958">
@@ -41628,7 +41628,7 @@
         </is>
       </c>
       <c r="I958" t="n">
-        <v>401.84</v>
+        <v>310.41</v>
       </c>
     </row>
     <row r="959">
@@ -41671,7 +41671,7 @@
         </is>
       </c>
       <c r="I959" t="n">
-        <v>708.03</v>
+        <v>545.9400000000001</v>
       </c>
     </row>
     <row r="960">
@@ -41714,7 +41714,7 @@
         </is>
       </c>
       <c r="I960" t="n">
-        <v>573.62</v>
+        <v>442.55</v>
       </c>
     </row>
     <row r="961">
@@ -41757,7 +41757,7 @@
         </is>
       </c>
       <c r="I961" t="n">
-        <v>1037.8</v>
+        <v>799.61</v>
       </c>
     </row>
     <row r="962">
@@ -41800,7 +41800,7 @@
         </is>
       </c>
       <c r="I962" t="n">
-        <v>1644.36</v>
+        <v>1266.19</v>
       </c>
     </row>
     <row r="963">
@@ -41843,7 +41843,7 @@
         </is>
       </c>
       <c r="I963" t="n">
-        <v>1172.61</v>
+        <v>903.3099999999999</v>
       </c>
     </row>
     <row r="964">
@@ -41886,7 +41886,7 @@
         </is>
       </c>
       <c r="I964" t="n">
-        <v>514.36</v>
+        <v>396.96</v>
       </c>
     </row>
     <row r="965">
@@ -41929,7 +41929,7 @@
         </is>
       </c>
       <c r="I965" t="n">
-        <v>809.54</v>
+        <v>624.02</v>
       </c>
     </row>
     <row r="966">
@@ -41972,7 +41972,7 @@
         </is>
       </c>
       <c r="I966" t="n">
-        <v>311.79</v>
+        <v>241.14</v>
       </c>
     </row>
     <row r="967">
@@ -42015,7 +42015,7 @@
         </is>
       </c>
       <c r="I967" t="n">
-        <v>148.2</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="968">
@@ -42058,7 +42058,7 @@
         </is>
       </c>
       <c r="I968" t="n">
-        <v>731.74</v>
+        <v>564.1799999999999</v>
       </c>
     </row>
     <row r="969">
@@ -42101,7 +42101,7 @@
         </is>
       </c>
       <c r="I969" t="n">
-        <v>619.55</v>
+        <v>477.88</v>
       </c>
     </row>
     <row r="970">
@@ -42144,7 +42144,7 @@
         </is>
       </c>
       <c r="I970" t="n">
-        <v>730.2</v>
+        <v>562.99</v>
       </c>
     </row>
     <row r="971">
@@ -42187,7 +42187,7 @@
         </is>
       </c>
       <c r="I971" t="n">
-        <v>888.9</v>
+        <v>685.0700000000001</v>
       </c>
     </row>
     <row r="972">
@@ -42230,7 +42230,7 @@
         </is>
       </c>
       <c r="I972" t="n">
-        <v>1514.02</v>
+        <v>1165.93</v>
       </c>
     </row>
     <row r="973">
@@ -42273,7 +42273,7 @@
         </is>
       </c>
       <c r="I973" t="n">
-        <v>645.74</v>
+        <v>498.02</v>
       </c>
     </row>
     <row r="974">
@@ -42316,7 +42316,7 @@
         </is>
       </c>
       <c r="I974" t="n">
-        <v>1555.52</v>
+        <v>1197.85</v>
       </c>
     </row>
     <row r="975">
@@ -42359,7 +42359,7 @@
         </is>
       </c>
       <c r="I975" t="n">
-        <v>860.86</v>
+        <v>663.5</v>
       </c>
     </row>
     <row r="976">
@@ -42402,7 +42402,7 @@
         </is>
       </c>
       <c r="I976" t="n">
-        <v>683.5700000000001</v>
+        <v>527.12</v>
       </c>
     </row>
     <row r="977">
@@ -42445,7 +42445,7 @@
         </is>
       </c>
       <c r="I977" t="n">
-        <v>1015.3</v>
+        <v>782.3</v>
       </c>
     </row>
     <row r="978">
@@ -42488,7 +42488,7 @@
         </is>
       </c>
       <c r="I978" t="n">
-        <v>988.23</v>
+        <v>761.48</v>
       </c>
     </row>
     <row r="979">
@@ -42531,7 +42531,7 @@
         </is>
       </c>
       <c r="I979" t="n">
-        <v>391.09</v>
+        <v>302.14</v>
       </c>
     </row>
     <row r="980">
@@ -42574,7 +42574,7 @@
         </is>
       </c>
       <c r="I980" t="n">
-        <v>2477.03</v>
+        <v>1906.71</v>
       </c>
     </row>
     <row r="981">
@@ -42617,7 +42617,7 @@
         </is>
       </c>
       <c r="I981" t="n">
-        <v>637</v>
+        <v>491.3</v>
       </c>
     </row>
     <row r="982">
@@ -42660,7 +42660,7 @@
         </is>
       </c>
       <c r="I982" t="n">
-        <v>271.32</v>
+        <v>210.01</v>
       </c>
     </row>
     <row r="983">
@@ -42703,7 +42703,7 @@
         </is>
       </c>
       <c r="I983" t="n">
-        <v>466.1</v>
+        <v>359.84</v>
       </c>
     </row>
     <row r="984">
@@ -42746,7 +42746,7 @@
         </is>
       </c>
       <c r="I984" t="n">
-        <v>218.97</v>
+        <v>169.74</v>
       </c>
     </row>
     <row r="985">
@@ -42789,7 +42789,7 @@
         </is>
       </c>
       <c r="I985" t="n">
-        <v>1892.2</v>
+        <v>1456.84</v>
       </c>
     </row>
     <row r="986">
@@ -42832,7 +42832,7 @@
         </is>
       </c>
       <c r="I986" t="n">
-        <v>474.67</v>
+        <v>366.43</v>
       </c>
     </row>
     <row r="987">
@@ -42875,7 +42875,7 @@
         </is>
       </c>
       <c r="I987" t="n">
-        <v>880.9299999999999</v>
+        <v>678.9400000000001</v>
       </c>
     </row>
     <row r="988">
@@ -42918,7 +42918,7 @@
         </is>
       </c>
       <c r="I988" t="n">
-        <v>862.21</v>
+        <v>664.54</v>
       </c>
     </row>
     <row r="989">
@@ -42961,7 +42961,7 @@
         </is>
       </c>
       <c r="I989" t="n">
-        <v>2152.94</v>
+        <v>1657.41</v>
       </c>
     </row>
     <row r="990">
@@ -43004,7 +43004,7 @@
         </is>
       </c>
       <c r="I990" t="n">
-        <v>641.11</v>
+        <v>494.46</v>
       </c>
     </row>
     <row r="991">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="I991" t="n">
-        <v>1048.29</v>
+        <v>807.6799999999999</v>
       </c>
     </row>
     <row r="992">
@@ -43090,7 +43090,7 @@
         </is>
       </c>
       <c r="I992" t="n">
-        <v>186.22</v>
+        <v>144.55</v>
       </c>
     </row>
     <row r="993">
@@ -43133,7 +43133,7 @@
         </is>
       </c>
       <c r="I993" t="n">
-        <v>1094.05</v>
+        <v>842.88</v>
       </c>
     </row>
     <row r="994">
@@ -43176,7 +43176,7 @@
         </is>
       </c>
       <c r="I994" t="n">
-        <v>1864.3</v>
+        <v>1435.38</v>
       </c>
     </row>
     <row r="995">
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="I995" t="n">
-        <v>863.75</v>
+        <v>665.72</v>
       </c>
     </row>
     <row r="996">
@@ -43262,7 +43262,7 @@
         </is>
       </c>
       <c r="I996" t="n">
-        <v>516.85</v>
+        <v>398.88</v>
       </c>
     </row>
     <row r="997">
@@ -43305,7 +43305,7 @@
         </is>
       </c>
       <c r="I997" t="n">
-        <v>193.35</v>
+        <v>150.03</v>
       </c>
     </row>
     <row r="998">
@@ -43348,7 +43348,7 @@
         </is>
       </c>
       <c r="I998" t="n">
-        <v>360.93</v>
+        <v>278.94</v>
       </c>
     </row>
     <row r="999">
@@ -43391,7 +43391,7 @@
         </is>
       </c>
       <c r="I999" t="n">
-        <v>1617.58</v>
+        <v>1245.59</v>
       </c>
     </row>
     <row r="1000">
@@ -43434,7 +43434,7 @@
         </is>
       </c>
       <c r="I1000" t="n">
-        <v>313.5</v>
+        <v>242.45</v>
       </c>
     </row>
     <row r="1001">
@@ -43477,7 +43477,7 @@
         </is>
       </c>
       <c r="I1001" t="n">
-        <v>1441.91</v>
+        <v>1110.46</v>
       </c>
     </row>
   </sheetData>
